--- a/Energy community potential model/results_monte_carlo.xlsx
+++ b/Energy community potential model/results_monte_carlo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s124129\Documents\GitHub\Energy-community-potential-model\Energy community potential model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED5C0AC-133E-4A3D-8109-6C3117CB0AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DB08A7-E321-4ED1-A1ED-AEEF72CBC32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="8" xr2:uid="{C9885265-92F8-4143-8AA0-FF6432230651}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="7" xr2:uid="{C9885265-92F8-4143-8AA0-FF6432230651}"/>
   </bookViews>
   <sheets>
     <sheet name="assumptions" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="34">
   <si>
     <t>year</t>
   </si>
@@ -119,6 +119,33 @@
   </si>
   <si>
     <t>run3</t>
+  </si>
+  <si>
+    <t>run4</t>
+  </si>
+  <si>
+    <t>run5</t>
+  </si>
+  <si>
+    <t>run6</t>
+  </si>
+  <si>
+    <t>run7</t>
+  </si>
+  <si>
+    <t>run8</t>
+  </si>
+  <si>
+    <t>run9</t>
+  </si>
+  <si>
+    <t>run10</t>
+  </si>
+  <si>
+    <t>run11</t>
+  </si>
+  <si>
+    <t>run12</t>
   </si>
 </sst>
 </file>
@@ -6451,15 +6478,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AM3" t="e" s="0">
-        <f t="shared" ref="AM3:AM52" si="2">_xlfn.CONFIDENCE.T(0.01, AH3, 30)</f>
+        <f t="shared" ref="AM3:AM44" si="2">_xlfn.CONFIDENCE.T(0.01, AH3, 30)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AN3" t="e" s="0">
-        <f t="shared" ref="AN3:AN52" si="3">_xlfn.CONFIDENCE.T(0.01, AI3, 30)</f>
+        <f t="shared" ref="AN3:AN44" si="3">_xlfn.CONFIDENCE.T(0.01, AI3, 30)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO3" t="e" s="0">
-        <f t="shared" ref="AO3:AO52" si="4">_xlfn.CONFIDENCE.T(0.01, AJ3, 30)</f>
+        <f t="shared" ref="AO3:AO44" si="4">_xlfn.CONFIDENCE.T(0.01, AJ3, 30)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6510,19 +6537,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R4" s="2" t="e">
-        <f t="shared" ref="R4:R52" si="5">M4*99/302660</f>
+        <f t="shared" ref="R4:R44" si="5">M4*99/302660</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S4" s="2" t="e">
-        <f t="shared" ref="S4:S52" si="6">N4*99/302660</f>
+        <f t="shared" ref="S4:S44" si="6">N4*99/302660</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T4" s="2" t="e">
-        <f t="shared" ref="T4:T52" si="7">O4*99/302660</f>
+        <f t="shared" ref="T4:T44" si="7">O4*99/302660</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U4" s="2" t="e">
-        <f t="shared" ref="U4:U52" si="8">P4*99/302660</f>
+        <f t="shared" ref="U4:U44" si="8">P4*99/302660</f>
         <v>#DIV/0!</v>
       </c>
       <c r="W4" s="1" t="e">
@@ -6542,19 +6569,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB4" t="e" s="0">
-        <f t="shared" ref="AB4:AB52" si="9">_xlfn.CONFIDENCE.T(0.01, W4, 30)</f>
+        <f t="shared" ref="AB4:AB44" si="9">_xlfn.CONFIDENCE.T(0.01, W4, 30)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AC4" t="e" s="0">
-        <f t="shared" ref="AC4:AC52" si="10">_xlfn.CONFIDENCE.T(0.01, X4, 30)</f>
+        <f t="shared" ref="AC4:AC44" si="10">_xlfn.CONFIDENCE.T(0.01, X4, 30)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AD4" t="e" s="0">
-        <f t="shared" ref="AD4:AD52" si="11">_xlfn.CONFIDENCE.T(0.01, Y4, 30)</f>
+        <f t="shared" ref="AD4:AD44" si="11">_xlfn.CONFIDENCE.T(0.01, Y4, 30)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE4" t="e" s="0">
-        <f t="shared" ref="AE4:AE52" si="12">_xlfn.CONFIDENCE.T(0.01, Z4, 30)</f>
+        <f t="shared" ref="AE4:AE44" si="12">_xlfn.CONFIDENCE.T(0.01, Z4, 30)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AG4" s="1" t="e">
@@ -6574,7 +6601,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AL4" t="e" s="0">
-        <f t="shared" ref="AL4:AL52" si="13">_xlfn.CONFIDENCE.T(0.01, AG4, 30)</f>
+        <f t="shared" ref="AL4:AL44" si="13">_xlfn.CONFIDENCE.T(0.01, AG4, 30)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AM4" t="e" s="0">
@@ -11535,15 +11562,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16728A04-9240-4A2C-B442-0C4B0C9363A3}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A43"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
@@ -11556,8 +11583,35 @@
       <c r="D1" t="s" s="0">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E1" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="0">
         <v>2009</v>
       </c>
@@ -11570,8 +11624,35 @@
       <c r="D2" t="n" s="0">
         <v>17.0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E2" s="0">
+        <v>17</v>
+      </c>
+      <c r="F2" s="0">
+        <v>17</v>
+      </c>
+      <c r="G2" s="0">
+        <v>17</v>
+      </c>
+      <c r="H2" s="0">
+        <v>17</v>
+      </c>
+      <c r="I2" s="0">
+        <v>17</v>
+      </c>
+      <c r="J2" s="0">
+        <v>17</v>
+      </c>
+      <c r="K2" s="0">
+        <v>17</v>
+      </c>
+      <c r="L2" s="0">
+        <v>17</v>
+      </c>
+      <c r="M2" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="0">
         <v>2010</v>
       </c>
@@ -11584,8 +11665,35 @@
       <c r="D3" t="n" s="0">
         <v>22.0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E3" s="0">
+        <v>22</v>
+      </c>
+      <c r="F3" s="0">
+        <v>22</v>
+      </c>
+      <c r="G3" s="0">
+        <v>22</v>
+      </c>
+      <c r="H3" s="0">
+        <v>22</v>
+      </c>
+      <c r="I3" s="0">
+        <v>22</v>
+      </c>
+      <c r="J3" s="0">
+        <v>22</v>
+      </c>
+      <c r="K3" s="0">
+        <v>22</v>
+      </c>
+      <c r="L3" s="0">
+        <v>22</v>
+      </c>
+      <c r="M3" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="0">
         <v>2011</v>
       </c>
@@ -11598,8 +11706,35 @@
       <c r="D4" t="n" s="0">
         <v>32.0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E4" s="0">
+        <v>32</v>
+      </c>
+      <c r="F4" s="0">
+        <v>32</v>
+      </c>
+      <c r="G4" s="0">
+        <v>32</v>
+      </c>
+      <c r="H4" s="0">
+        <v>32</v>
+      </c>
+      <c r="I4" s="0">
+        <v>32</v>
+      </c>
+      <c r="J4" s="0">
+        <v>32</v>
+      </c>
+      <c r="K4" s="0">
+        <v>32</v>
+      </c>
+      <c r="L4" s="0">
+        <v>32</v>
+      </c>
+      <c r="M4" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="0">
         <v>2012</v>
       </c>
@@ -11612,8 +11747,35 @@
       <c r="D5" t="n" s="0">
         <v>55.0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E5" s="0">
+        <v>55</v>
+      </c>
+      <c r="F5" s="0">
+        <v>55</v>
+      </c>
+      <c r="G5" s="0">
+        <v>55</v>
+      </c>
+      <c r="H5" s="0">
+        <v>55</v>
+      </c>
+      <c r="I5" s="0">
+        <v>55</v>
+      </c>
+      <c r="J5" s="0">
+        <v>55</v>
+      </c>
+      <c r="K5" s="0">
+        <v>55</v>
+      </c>
+      <c r="L5" s="0">
+        <v>55</v>
+      </c>
+      <c r="M5" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="0">
         <v>2013</v>
       </c>
@@ -11626,8 +11788,35 @@
       <c r="D6" t="n" s="0">
         <v>108.0</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E6" s="0">
+        <v>108</v>
+      </c>
+      <c r="F6" s="0">
+        <v>108</v>
+      </c>
+      <c r="G6" s="0">
+        <v>108</v>
+      </c>
+      <c r="H6" s="0">
+        <v>108</v>
+      </c>
+      <c r="I6" s="0">
+        <v>108</v>
+      </c>
+      <c r="J6" s="0">
+        <v>108</v>
+      </c>
+      <c r="K6" s="0">
+        <v>108</v>
+      </c>
+      <c r="L6" s="0">
+        <v>108</v>
+      </c>
+      <c r="M6" s="0">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="0">
         <v>2014</v>
       </c>
@@ -11640,8 +11829,35 @@
       <c r="D7" t="n" s="0">
         <v>155.0</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E7" s="0">
+        <v>155</v>
+      </c>
+      <c r="F7" s="0">
+        <v>155</v>
+      </c>
+      <c r="G7" s="0">
+        <v>155</v>
+      </c>
+      <c r="H7" s="0">
+        <v>155</v>
+      </c>
+      <c r="I7" s="0">
+        <v>155</v>
+      </c>
+      <c r="J7" s="0">
+        <v>155</v>
+      </c>
+      <c r="K7" s="0">
+        <v>155</v>
+      </c>
+      <c r="L7" s="0">
+        <v>155</v>
+      </c>
+      <c r="M7" s="0">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="0">
         <v>2015</v>
       </c>
@@ -11654,8 +11870,35 @@
       <c r="D8" t="n" s="0">
         <v>206.0</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E8" s="0">
+        <v>206</v>
+      </c>
+      <c r="F8" s="0">
+        <v>206</v>
+      </c>
+      <c r="G8" s="0">
+        <v>206</v>
+      </c>
+      <c r="H8" s="0">
+        <v>206</v>
+      </c>
+      <c r="I8" s="0">
+        <v>206</v>
+      </c>
+      <c r="J8" s="0">
+        <v>206</v>
+      </c>
+      <c r="K8" s="0">
+        <v>206</v>
+      </c>
+      <c r="L8" s="0">
+        <v>206</v>
+      </c>
+      <c r="M8" s="0">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="0">
         <v>2016</v>
       </c>
@@ -11668,8 +11911,35 @@
       <c r="D9" t="n" s="0">
         <v>258.0</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E9" s="0">
+        <v>258</v>
+      </c>
+      <c r="F9" s="0">
+        <v>258</v>
+      </c>
+      <c r="G9" s="0">
+        <v>258</v>
+      </c>
+      <c r="H9" s="0">
+        <v>258</v>
+      </c>
+      <c r="I9" s="0">
+        <v>258</v>
+      </c>
+      <c r="J9" s="0">
+        <v>258</v>
+      </c>
+      <c r="K9" s="0">
+        <v>258</v>
+      </c>
+      <c r="L9" s="0">
+        <v>258</v>
+      </c>
+      <c r="M9" s="0">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="0">
         <v>2017</v>
       </c>
@@ -11682,8 +11952,35 @@
       <c r="D10" t="n" s="0">
         <v>310.0</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E10" s="0">
+        <v>310</v>
+      </c>
+      <c r="F10" s="0">
+        <v>310</v>
+      </c>
+      <c r="G10" s="0">
+        <v>310</v>
+      </c>
+      <c r="H10" s="0">
+        <v>310</v>
+      </c>
+      <c r="I10" s="0">
+        <v>310</v>
+      </c>
+      <c r="J10" s="0">
+        <v>310</v>
+      </c>
+      <c r="K10" s="0">
+        <v>310</v>
+      </c>
+      <c r="L10" s="0">
+        <v>310</v>
+      </c>
+      <c r="M10" s="0">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="0">
         <v>2018</v>
       </c>
@@ -11696,8 +11993,35 @@
       <c r="D11" t="n" s="0">
         <v>382.0</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E11" s="0">
+        <v>382</v>
+      </c>
+      <c r="F11" s="0">
+        <v>382</v>
+      </c>
+      <c r="G11" s="0">
+        <v>382</v>
+      </c>
+      <c r="H11" s="0">
+        <v>382</v>
+      </c>
+      <c r="I11" s="0">
+        <v>382</v>
+      </c>
+      <c r="J11" s="0">
+        <v>382</v>
+      </c>
+      <c r="K11" s="0">
+        <v>382</v>
+      </c>
+      <c r="L11" s="0">
+        <v>382</v>
+      </c>
+      <c r="M11" s="0">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="0">
         <v>2019</v>
       </c>
@@ -11710,8 +12034,35 @@
       <c r="D12" t="n" s="0">
         <v>448.0</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E12" s="0">
+        <v>448</v>
+      </c>
+      <c r="F12" s="0">
+        <v>448</v>
+      </c>
+      <c r="G12" s="0">
+        <v>448</v>
+      </c>
+      <c r="H12" s="0">
+        <v>448</v>
+      </c>
+      <c r="I12" s="0">
+        <v>448</v>
+      </c>
+      <c r="J12" s="0">
+        <v>448</v>
+      </c>
+      <c r="K12" s="0">
+        <v>448</v>
+      </c>
+      <c r="L12" s="0">
+        <v>448</v>
+      </c>
+      <c r="M12" s="0">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="0">
         <v>2020</v>
       </c>
@@ -11724,8 +12075,35 @@
       <c r="D13" t="n" s="0">
         <v>501.0</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E13" s="0">
+        <v>501</v>
+      </c>
+      <c r="F13" s="0">
+        <v>501</v>
+      </c>
+      <c r="G13" s="0">
+        <v>501</v>
+      </c>
+      <c r="H13" s="0">
+        <v>501</v>
+      </c>
+      <c r="I13" s="0">
+        <v>501</v>
+      </c>
+      <c r="J13" s="0">
+        <v>501</v>
+      </c>
+      <c r="K13" s="0">
+        <v>501</v>
+      </c>
+      <c r="L13" s="0">
+        <v>501</v>
+      </c>
+      <c r="M13" s="0">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="0">
         <v>2021</v>
       </c>
@@ -11738,8 +12116,35 @@
       <c r="D14" t="n" s="0">
         <v>541.0</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E14" s="0">
+        <v>541</v>
+      </c>
+      <c r="F14" s="0">
+        <v>541</v>
+      </c>
+      <c r="G14" s="0">
+        <v>541</v>
+      </c>
+      <c r="H14" s="0">
+        <v>541</v>
+      </c>
+      <c r="I14" s="0">
+        <v>541</v>
+      </c>
+      <c r="J14" s="0">
+        <v>541</v>
+      </c>
+      <c r="K14" s="0">
+        <v>541</v>
+      </c>
+      <c r="L14" s="0">
+        <v>541</v>
+      </c>
+      <c r="M14" s="0">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="0">
         <v>2022</v>
       </c>
@@ -11752,8 +12157,35 @@
       <c r="D15" t="n" s="0">
         <v>564.0</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E15" s="0">
+        <v>564</v>
+      </c>
+      <c r="F15" s="0">
+        <v>564</v>
+      </c>
+      <c r="G15" s="0">
+        <v>564</v>
+      </c>
+      <c r="H15" s="0">
+        <v>564</v>
+      </c>
+      <c r="I15" s="0">
+        <v>564</v>
+      </c>
+      <c r="J15" s="0">
+        <v>564</v>
+      </c>
+      <c r="K15" s="0">
+        <v>564</v>
+      </c>
+      <c r="L15" s="0">
+        <v>564</v>
+      </c>
+      <c r="M15" s="0">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="0">
         <v>2023</v>
       </c>
@@ -11766,383 +12198,1139 @@
       <c r="D16" t="n" s="0">
         <v>575.0</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E16" s="0">
+        <v>575</v>
+      </c>
+      <c r="F16" s="0">
+        <v>575</v>
+      </c>
+      <c r="G16" s="0">
+        <v>575</v>
+      </c>
+      <c r="H16" s="0">
+        <v>575</v>
+      </c>
+      <c r="I16" s="0">
+        <v>575</v>
+      </c>
+      <c r="J16" s="0">
+        <v>575</v>
+      </c>
+      <c r="K16" s="0">
+        <v>575</v>
+      </c>
+      <c r="L16" s="0">
+        <v>575</v>
+      </c>
+      <c r="M16" s="0">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="0">
         <v>2024</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>737.0</v>
+        <v>575.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>729.0</v>
+        <v>575.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>718.0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+        <v>575.0</v>
+      </c>
+      <c r="E17" s="0">
+        <v>575</v>
+      </c>
+      <c r="F17" s="0">
+        <v>575</v>
+      </c>
+      <c r="G17" s="0">
+        <v>575</v>
+      </c>
+      <c r="H17" s="0">
+        <v>575</v>
+      </c>
+      <c r="I17" s="0">
+        <v>575</v>
+      </c>
+      <c r="J17" s="0">
+        <v>575</v>
+      </c>
+      <c r="K17" s="0">
+        <v>575</v>
+      </c>
+      <c r="L17" s="0">
+        <v>575</v>
+      </c>
+      <c r="M17" s="0">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="0">
         <v>2025</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>752.0</v>
+        <v>575.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>750.0</v>
+        <v>575.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>736.0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+        <v>575.0</v>
+      </c>
+      <c r="E18" s="0">
+        <v>575</v>
+      </c>
+      <c r="F18" s="0">
+        <v>575</v>
+      </c>
+      <c r="G18" s="0">
+        <v>575</v>
+      </c>
+      <c r="H18" s="0">
+        <v>575</v>
+      </c>
+      <c r="I18" s="0">
+        <v>575</v>
+      </c>
+      <c r="J18" s="0">
+        <v>575</v>
+      </c>
+      <c r="K18" s="0">
+        <v>575</v>
+      </c>
+      <c r="L18" s="0">
+        <v>575</v>
+      </c>
+      <c r="M18" s="0">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="0">
         <v>2026</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>759.0</v>
+        <v>575.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>762.0</v>
+        <v>575.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>755.0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+        <v>575.0</v>
+      </c>
+      <c r="E19" s="0">
+        <v>575</v>
+      </c>
+      <c r="F19" s="0">
+        <v>579</v>
+      </c>
+      <c r="G19" s="0">
+        <v>575</v>
+      </c>
+      <c r="H19" s="0">
+        <v>576</v>
+      </c>
+      <c r="I19" s="0">
+        <v>576</v>
+      </c>
+      <c r="J19" s="0">
+        <v>579</v>
+      </c>
+      <c r="K19" s="0">
+        <v>581</v>
+      </c>
+      <c r="L19" s="0">
+        <v>575</v>
+      </c>
+      <c r="M19" s="0">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="0">
         <v>2027</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>766.0</v>
+        <v>577.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>773.0</v>
+        <v>577.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>765.0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+        <v>575.0</v>
+      </c>
+      <c r="E20" s="0">
+        <v>577</v>
+      </c>
+      <c r="F20" s="0">
+        <v>584</v>
+      </c>
+      <c r="G20" s="0">
+        <v>578</v>
+      </c>
+      <c r="H20" s="0">
+        <v>576</v>
+      </c>
+      <c r="I20" s="0">
+        <v>576</v>
+      </c>
+      <c r="J20" s="0">
+        <v>593</v>
+      </c>
+      <c r="K20" s="0">
+        <v>590</v>
+      </c>
+      <c r="L20" s="0">
+        <v>576</v>
+      </c>
+      <c r="M20" s="0">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="0">
         <v>2028</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>775.0</v>
+        <v>582.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>783.0</v>
+        <v>583.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>778.0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+        <v>577.0</v>
+      </c>
+      <c r="E21" s="0">
+        <v>590</v>
+      </c>
+      <c r="F21" s="0">
+        <v>601</v>
+      </c>
+      <c r="G21" s="0">
+        <v>580</v>
+      </c>
+      <c r="H21" s="0">
+        <v>579</v>
+      </c>
+      <c r="I21" s="0">
+        <v>585</v>
+      </c>
+      <c r="J21" s="0">
+        <v>605</v>
+      </c>
+      <c r="K21" s="0">
+        <v>601</v>
+      </c>
+      <c r="L21" s="0">
+        <v>578</v>
+      </c>
+      <c r="M21" s="0">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="0">
         <v>2029</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>783.0</v>
+        <v>590.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>793.0</v>
+        <v>597.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>782.0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+        <v>582.0</v>
+      </c>
+      <c r="E22" s="0">
+        <v>608</v>
+      </c>
+      <c r="F22" s="0">
+        <v>623</v>
+      </c>
+      <c r="G22" s="0">
+        <v>595</v>
+      </c>
+      <c r="H22" s="0">
+        <v>587</v>
+      </c>
+      <c r="I22" s="0">
+        <v>604</v>
+      </c>
+      <c r="J22" s="0">
+        <v>635</v>
+      </c>
+      <c r="K22" s="0">
+        <v>620</v>
+      </c>
+      <c r="L22" s="0">
+        <v>590</v>
+      </c>
+      <c r="M22" s="0">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="0">
         <v>2030</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>791.0</v>
+        <v>610.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>798.0</v>
+        <v>609.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>790.0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+        <v>596.0</v>
+      </c>
+      <c r="E23" s="0">
+        <v>628</v>
+      </c>
+      <c r="F23" s="0">
+        <v>640</v>
+      </c>
+      <c r="G23" s="0">
+        <v>612</v>
+      </c>
+      <c r="H23" s="0">
+        <v>605</v>
+      </c>
+      <c r="I23" s="0">
+        <v>620</v>
+      </c>
+      <c r="J23" s="0">
+        <v>652</v>
+      </c>
+      <c r="K23" s="0">
+        <v>647</v>
+      </c>
+      <c r="L23" s="0">
+        <v>607</v>
+      </c>
+      <c r="M23" s="0">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="0">
         <v>2031</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v>796.0</v>
+        <v>633.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>812.0</v>
+        <v>625.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>794.0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+        <v>614.0</v>
+      </c>
+      <c r="E24" s="0">
+        <v>637</v>
+      </c>
+      <c r="F24" s="0">
+        <v>658</v>
+      </c>
+      <c r="G24" s="0">
+        <v>628</v>
+      </c>
+      <c r="H24" s="0">
+        <v>624</v>
+      </c>
+      <c r="I24" s="0">
+        <v>641</v>
+      </c>
+      <c r="J24" s="0">
+        <v>668</v>
+      </c>
+      <c r="K24" s="0">
+        <v>666</v>
+      </c>
+      <c r="L24" s="0">
+        <v>625</v>
+      </c>
+      <c r="M24" s="0">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="0">
         <v>2032</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>808.0</v>
+        <v>652.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>817.0</v>
+        <v>648.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>799.0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+        <v>623.0</v>
+      </c>
+      <c r="E25" s="0">
+        <v>657</v>
+      </c>
+      <c r="F25" s="0">
+        <v>679</v>
+      </c>
+      <c r="G25" s="0">
+        <v>643</v>
+      </c>
+      <c r="H25" s="0">
+        <v>644</v>
+      </c>
+      <c r="I25" s="0">
+        <v>655</v>
+      </c>
+      <c r="J25" s="0">
+        <v>685</v>
+      </c>
+      <c r="K25" s="0">
+        <v>682</v>
+      </c>
+      <c r="L25" s="0">
+        <v>646</v>
+      </c>
+      <c r="M25" s="0">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="0">
         <v>2033</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v>817.0</v>
+        <v>671.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>822.0</v>
+        <v>666.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>808.0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+        <v>643.0</v>
+      </c>
+      <c r="E26" s="0">
+        <v>672</v>
+      </c>
+      <c r="F26" s="0">
+        <v>694</v>
+      </c>
+      <c r="G26" s="0">
+        <v>661</v>
+      </c>
+      <c r="H26" s="0">
+        <v>657</v>
+      </c>
+      <c r="I26" s="0">
+        <v>677</v>
+      </c>
+      <c r="J26" s="0">
+        <v>709</v>
+      </c>
+      <c r="K26" s="0">
+        <v>695</v>
+      </c>
+      <c r="L26" s="0">
+        <v>671</v>
+      </c>
+      <c r="M26" s="0">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="0">
         <v>2034</v>
       </c>
       <c r="B27" t="n" s="0">
-        <v>825.0</v>
+        <v>687.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>830.0</v>
+        <v>676.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>817.0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+        <v>661.0</v>
+      </c>
+      <c r="E27" s="0">
+        <v>684</v>
+      </c>
+      <c r="F27" s="0">
+        <v>711</v>
+      </c>
+      <c r="G27" s="0">
+        <v>675</v>
+      </c>
+      <c r="H27" s="0">
+        <v>671</v>
+      </c>
+      <c r="I27" s="0">
+        <v>685</v>
+      </c>
+      <c r="J27" s="0">
+        <v>724</v>
+      </c>
+      <c r="K27" s="0">
+        <v>709</v>
+      </c>
+      <c r="L27" s="0">
+        <v>685</v>
+      </c>
+      <c r="M27" s="0">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="0">
         <v>2035</v>
       </c>
       <c r="B28" t="n" s="0">
-        <v>831.0</v>
+        <v>701.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>834.0</v>
+        <v>702.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>828.0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+        <v>676.0</v>
+      </c>
+      <c r="E28" s="0">
+        <v>697</v>
+      </c>
+      <c r="F28" s="0">
+        <v>723</v>
+      </c>
+      <c r="G28" s="0">
+        <v>688</v>
+      </c>
+      <c r="H28" s="0">
+        <v>680</v>
+      </c>
+      <c r="I28" s="0">
+        <v>695</v>
+      </c>
+      <c r="J28" s="0">
+        <v>736</v>
+      </c>
+      <c r="K28" s="0">
+        <v>726</v>
+      </c>
+      <c r="L28" s="0">
+        <v>699</v>
+      </c>
+      <c r="M28" s="0">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="0">
         <v>2036</v>
       </c>
       <c r="B29" t="n" s="0">
-        <v>841.0</v>
+        <v>715.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>840.0</v>
+        <v>714.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>843.0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+        <v>689.0</v>
+      </c>
+      <c r="E29" s="0">
+        <v>708</v>
+      </c>
+      <c r="F29" s="0">
+        <v>734</v>
+      </c>
+      <c r="G29" s="0">
+        <v>698</v>
+      </c>
+      <c r="H29" s="0">
+        <v>691</v>
+      </c>
+      <c r="I29" s="0">
+        <v>705</v>
+      </c>
+      <c r="J29" s="0">
+        <v>744</v>
+      </c>
+      <c r="K29" s="0">
+        <v>741</v>
+      </c>
+      <c r="L29" s="0">
+        <v>712</v>
+      </c>
+      <c r="M29" s="0">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="0">
         <v>2037</v>
       </c>
       <c r="B30" t="n" s="0">
-        <v>850.0</v>
+        <v>726.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>846.0</v>
+        <v>726.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>848.0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+        <v>709.0</v>
+      </c>
+      <c r="E30" s="0">
+        <v>718</v>
+      </c>
+      <c r="F30" s="0">
+        <v>746</v>
+      </c>
+      <c r="G30" s="0">
+        <v>704</v>
+      </c>
+      <c r="H30" s="0">
+        <v>714</v>
+      </c>
+      <c r="I30" s="0">
+        <v>718</v>
+      </c>
+      <c r="J30" s="0">
+        <v>756</v>
+      </c>
+      <c r="K30" s="0">
+        <v>752</v>
+      </c>
+      <c r="L30" s="0">
+        <v>724</v>
+      </c>
+      <c r="M30" s="0">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="0">
         <v>2038</v>
       </c>
       <c r="B31" t="n" s="0">
-        <v>856.0</v>
+        <v>739.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>849.0</v>
+        <v>740.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>852.0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+        <v>725.0</v>
+      </c>
+      <c r="E31" s="0">
+        <v>735</v>
+      </c>
+      <c r="F31" s="0">
+        <v>762</v>
+      </c>
+      <c r="G31" s="0">
+        <v>719</v>
+      </c>
+      <c r="H31" s="0">
+        <v>729</v>
+      </c>
+      <c r="I31" s="0">
+        <v>730</v>
+      </c>
+      <c r="J31" s="0">
+        <v>771</v>
+      </c>
+      <c r="K31" s="0">
+        <v>767</v>
+      </c>
+      <c r="L31" s="0">
+        <v>738</v>
+      </c>
+      <c r="M31" s="0">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="0">
         <v>2039</v>
       </c>
       <c r="B32" t="n" s="0">
-        <v>860.0</v>
+        <v>758.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>855.0</v>
+        <v>756.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>859.0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+        <v>738.0</v>
+      </c>
+      <c r="E32" s="0">
+        <v>746</v>
+      </c>
+      <c r="F32" s="0">
+        <v>774</v>
+      </c>
+      <c r="G32" s="0">
+        <v>734</v>
+      </c>
+      <c r="H32" s="0">
+        <v>738</v>
+      </c>
+      <c r="I32" s="0">
+        <v>741</v>
+      </c>
+      <c r="J32" s="0">
+        <v>779</v>
+      </c>
+      <c r="K32" s="0">
+        <v>777</v>
+      </c>
+      <c r="L32" s="0">
+        <v>747</v>
+      </c>
+      <c r="M32" s="0">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="0">
         <v>2040</v>
       </c>
       <c r="B33" t="n" s="0">
-        <v>866.0</v>
+        <v>770.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>860.0</v>
+        <v>765.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>865.0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+        <v>750.0</v>
+      </c>
+      <c r="E33" s="0">
+        <v>762</v>
+      </c>
+      <c r="F33" s="0">
+        <v>792</v>
+      </c>
+      <c r="G33" s="0">
+        <v>745</v>
+      </c>
+      <c r="H33" s="0">
+        <v>748</v>
+      </c>
+      <c r="I33" s="0">
+        <v>754</v>
+      </c>
+      <c r="J33" s="0">
+        <v>785</v>
+      </c>
+      <c r="K33" s="0">
+        <v>792</v>
+      </c>
+      <c r="L33" s="0">
+        <v>763</v>
+      </c>
+      <c r="M33" s="0">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="0">
         <v>2041</v>
       </c>
       <c r="B34" t="n" s="0">
-        <v>873.0</v>
+        <v>784.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>868.0</v>
+        <v>774.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>867.0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+        <v>763.0</v>
+      </c>
+      <c r="E34" s="0">
+        <v>773</v>
+      </c>
+      <c r="F34" s="0">
+        <v>806</v>
+      </c>
+      <c r="G34" s="0">
+        <v>757</v>
+      </c>
+      <c r="H34" s="0">
+        <v>756</v>
+      </c>
+      <c r="I34" s="0">
+        <v>769</v>
+      </c>
+      <c r="J34" s="0">
+        <v>798</v>
+      </c>
+      <c r="K34" s="0">
+        <v>804</v>
+      </c>
+      <c r="L34" s="0">
+        <v>771</v>
+      </c>
+      <c r="M34" s="0">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="0">
         <v>2042</v>
       </c>
       <c r="B35" t="n" s="0">
-        <v>878.0</v>
+        <v>790.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>874.0</v>
+        <v>782.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>871.0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+        <v>774.0</v>
+      </c>
+      <c r="E35" s="0">
+        <v>779</v>
+      </c>
+      <c r="F35" s="0">
+        <v>820</v>
+      </c>
+      <c r="G35" s="0">
+        <v>771</v>
+      </c>
+      <c r="H35" s="0">
+        <v>765</v>
+      </c>
+      <c r="I35" s="0">
+        <v>782</v>
+      </c>
+      <c r="J35" s="0">
+        <v>806</v>
+      </c>
+      <c r="K35" s="0">
+        <v>814</v>
+      </c>
+      <c r="L35" s="0">
+        <v>782</v>
+      </c>
+      <c r="M35" s="0">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="0">
         <v>2043</v>
       </c>
       <c r="B36" t="n" s="0">
-        <v>881.0</v>
+        <v>795.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>876.0</v>
+        <v>794.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>876.0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+        <v>785.0</v>
+      </c>
+      <c r="E36" s="0">
+        <v>791</v>
+      </c>
+      <c r="F36" s="0">
+        <v>826</v>
+      </c>
+      <c r="G36" s="0">
+        <v>780</v>
+      </c>
+      <c r="H36" s="0">
+        <v>773</v>
+      </c>
+      <c r="I36" s="0">
+        <v>794</v>
+      </c>
+      <c r="J36" s="0">
+        <v>809</v>
+      </c>
+      <c r="K36" s="0">
+        <v>820</v>
+      </c>
+      <c r="L36" s="0">
+        <v>790</v>
+      </c>
+      <c r="M36" s="0">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="0">
         <v>2044</v>
       </c>
       <c r="B37" t="n" s="0">
-        <v>882.0</v>
+        <v>800.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>883.0</v>
+        <v>803.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>877.0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+        <v>793.0</v>
+      </c>
+      <c r="E37" s="0">
+        <v>799</v>
+      </c>
+      <c r="F37" s="0">
+        <v>834</v>
+      </c>
+      <c r="G37" s="0">
+        <v>790</v>
+      </c>
+      <c r="H37" s="0">
+        <v>780</v>
+      </c>
+      <c r="I37" s="0">
+        <v>804</v>
+      </c>
+      <c r="J37" s="0">
+        <v>818</v>
+      </c>
+      <c r="K37" s="0">
+        <v>825</v>
+      </c>
+      <c r="L37" s="0">
+        <v>800</v>
+      </c>
+      <c r="M37" s="0">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="0">
         <v>2045</v>
       </c>
       <c r="B38" t="n" s="0">
-        <v>884.0</v>
+        <v>809.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>885.0</v>
+        <v>812.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>880.0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+        <v>800.0</v>
+      </c>
+      <c r="E38" s="0">
+        <v>802</v>
+      </c>
+      <c r="F38" s="0">
+        <v>840</v>
+      </c>
+      <c r="G38" s="0">
+        <v>808</v>
+      </c>
+      <c r="H38" s="0">
+        <v>787</v>
+      </c>
+      <c r="I38" s="0">
+        <v>810</v>
+      </c>
+      <c r="J38" s="0">
+        <v>826</v>
+      </c>
+      <c r="K38" s="0">
+        <v>833</v>
+      </c>
+      <c r="L38" s="0">
+        <v>805</v>
+      </c>
+      <c r="M38" s="0">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="0">
         <v>2046</v>
       </c>
       <c r="B39" t="n" s="0">
-        <v>886.0</v>
+        <v>813.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>888.0</v>
+        <v>820.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>884.0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+        <v>806.0</v>
+      </c>
+      <c r="E39" s="0">
+        <v>810</v>
+      </c>
+      <c r="F39" s="0">
+        <v>845</v>
+      </c>
+      <c r="G39" s="0">
+        <v>819</v>
+      </c>
+      <c r="H39" s="0">
+        <v>800</v>
+      </c>
+      <c r="I39" s="0">
+        <v>816</v>
+      </c>
+      <c r="J39" s="0">
+        <v>832</v>
+      </c>
+      <c r="K39" s="0">
+        <v>837</v>
+      </c>
+      <c r="L39" s="0">
+        <v>812</v>
+      </c>
+      <c r="M39" s="0">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="0">
         <v>2047</v>
       </c>
       <c r="B40" t="n" s="0">
-        <v>888.0</v>
+        <v>820.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>891.0</v>
+        <v>827.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>887.0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+        <v>816.0</v>
+      </c>
+      <c r="E40" s="0">
+        <v>821</v>
+      </c>
+      <c r="F40" s="0">
+        <v>852</v>
+      </c>
+      <c r="G40" s="0">
+        <v>828</v>
+      </c>
+      <c r="H40" s="0">
+        <v>807</v>
+      </c>
+      <c r="I40" s="0">
+        <v>820</v>
+      </c>
+      <c r="J40" s="0">
+        <v>836</v>
+      </c>
+      <c r="K40" s="0">
+        <v>841</v>
+      </c>
+      <c r="L40" s="0">
+        <v>820</v>
+      </c>
+      <c r="M40" s="0">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="0">
         <v>2048</v>
       </c>
       <c r="B41" t="n" s="0">
-        <v>890.0</v>
+        <v>829.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>893.0</v>
+        <v>831.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>888.0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+        <v>826.0</v>
+      </c>
+      <c r="E41" s="0">
+        <v>826</v>
+      </c>
+      <c r="F41" s="0">
+        <v>855</v>
+      </c>
+      <c r="G41" s="0">
+        <v>837</v>
+      </c>
+      <c r="H41" s="0">
+        <v>812</v>
+      </c>
+      <c r="I41" s="0">
+        <v>825</v>
+      </c>
+      <c r="J41" s="0">
+        <v>840</v>
+      </c>
+      <c r="K41" s="0">
+        <v>848</v>
+      </c>
+      <c r="L41" s="0">
+        <v>828</v>
+      </c>
+      <c r="M41" s="0">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="0">
         <v>2049</v>
       </c>
       <c r="B42" t="n" s="0">
-        <v>893.0</v>
+        <v>831.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>893.0</v>
+        <v>837.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>892.0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+        <v>831.0</v>
+      </c>
+      <c r="E42" s="0">
+        <v>832</v>
+      </c>
+      <c r="F42" s="0">
+        <v>859</v>
+      </c>
+      <c r="G42" s="0">
+        <v>842</v>
+      </c>
+      <c r="H42" s="0">
+        <v>818</v>
+      </c>
+      <c r="I42" s="0">
+        <v>832</v>
+      </c>
+      <c r="J42" s="0">
+        <v>846</v>
+      </c>
+      <c r="K42" s="0">
+        <v>853</v>
+      </c>
+      <c r="L42" s="0">
+        <v>837</v>
+      </c>
+      <c r="M42" s="0">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="0">
         <v>2050</v>
       </c>
       <c r="B43" t="n" s="0">
-        <v>894.0</v>
+        <v>838.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>896.0</v>
+        <v>845.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>896.0</v>
+        <v>837.0</v>
+      </c>
+      <c r="E43" s="0">
+        <v>841</v>
+      </c>
+      <c r="F43" s="0">
+        <v>863</v>
+      </c>
+      <c r="G43" s="0">
+        <v>845</v>
+      </c>
+      <c r="H43" s="0">
+        <v>825</v>
+      </c>
+      <c r="I43" s="0">
+        <v>837</v>
+      </c>
+      <c r="J43" s="0">
+        <v>853</v>
+      </c>
+      <c r="K43" s="0">
+        <v>854</v>
+      </c>
+      <c r="L43" s="0">
+        <v>843</v>
+      </c>
+      <c r="M43" s="0">
+        <v>850</v>
       </c>
     </row>
   </sheetData>
@@ -12154,8 +13342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C0AC5A-1684-4C3E-A160-38DA93C8AF3A}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12389,13 +13577,13 @@
         <v>2025</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>1506.0</v>
+        <v>1433.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>1510.0</v>
+        <v>1437.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>1450.0</v>
+        <v>1434.0</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
@@ -12403,13 +13591,13 @@
         <v>2026</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>1692.0</v>
+        <v>1544.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>1690.0</v>
+        <v>1546.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>1609.0</v>
+        <v>1541.0</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
@@ -12417,13 +13605,13 @@
         <v>2027</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>1885.0</v>
+        <v>1660.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>1879.0</v>
+        <v>1675.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>1776.0</v>
+        <v>1654.0</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
@@ -12431,13 +13619,13 @@
         <v>2028</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>2108.0</v>
+        <v>1805.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>2095.0</v>
+        <v>1813.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>1971.0</v>
+        <v>1774.0</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
@@ -12445,13 +13633,13 @@
         <v>2029</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>2332.0</v>
+        <v>1978.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>2313.0</v>
+        <v>1981.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>2176.0</v>
+        <v>1918.0</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
@@ -12459,13 +13647,13 @@
         <v>2030</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>2583.0</v>
+        <v>2153.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>2556.0</v>
+        <v>2170.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>2393.0</v>
+        <v>2088.0</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
@@ -12473,13 +13661,13 @@
         <v>2031</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>2870.0</v>
+        <v>2351.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>2817.0</v>
+        <v>2377.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>2626.0</v>
+        <v>2267.0</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
@@ -12487,13 +13675,13 @@
         <v>2032</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v>3186.0</v>
+        <v>2573.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>3127.0</v>
+        <v>2596.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>2886.0</v>
+        <v>2473.0</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
@@ -12501,13 +13689,13 @@
         <v>2033</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>3525.0</v>
+        <v>2822.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>3458.0</v>
+        <v>2832.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>3169.0</v>
+        <v>2678.0</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
@@ -12515,13 +13703,13 @@
         <v>2034</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v>3886.0</v>
+        <v>3077.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>3811.0</v>
+        <v>3086.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>3476.0</v>
+        <v>2905.0</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
@@ -12529,13 +13717,13 @@
         <v>2035</v>
       </c>
       <c r="B27" t="n" s="0">
-        <v>4277.0</v>
+        <v>3341.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>4201.0</v>
+        <v>3350.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>3818.0</v>
+        <v>3153.0</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
@@ -12543,13 +13731,13 @@
         <v>2036</v>
       </c>
       <c r="B28" t="n" s="0">
-        <v>4704.0</v>
+        <v>3638.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>4605.0</v>
+        <v>3628.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>4173.0</v>
+        <v>3428.0</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
@@ -12557,13 +13745,13 @@
         <v>2037</v>
       </c>
       <c r="B29" t="n" s="0">
-        <v>5130.0</v>
+        <v>3935.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>5018.0</v>
+        <v>3919.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>4554.0</v>
+        <v>3711.0</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
@@ -12571,13 +13759,13 @@
         <v>2038</v>
       </c>
       <c r="B30" t="n" s="0">
-        <v>5579.0</v>
+        <v>4244.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>5461.0</v>
+        <v>4221.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>4964.0</v>
+        <v>4001.0</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
@@ -12585,13 +13773,13 @@
         <v>2039</v>
       </c>
       <c r="B31" t="n" s="0">
-        <v>6046.0</v>
+        <v>4563.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>5914.0</v>
+        <v>4519.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>5386.0</v>
+        <v>4301.0</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -12599,13 +13787,13 @@
         <v>2040</v>
       </c>
       <c r="B32" t="n" s="0">
-        <v>6524.0</v>
+        <v>4905.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>6378.0</v>
+        <v>4831.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>5836.0</v>
+        <v>4610.0</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
@@ -12613,13 +13801,13 @@
         <v>2041</v>
       </c>
       <c r="B33" t="n" s="0">
-        <v>7018.0</v>
+        <v>5247.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>6873.0</v>
+        <v>5164.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>6306.0</v>
+        <v>4921.0</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
@@ -12627,13 +13815,13 @@
         <v>2042</v>
       </c>
       <c r="B34" t="n" s="0">
-        <v>7523.0</v>
+        <v>5606.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>7377.0</v>
+        <v>5496.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>6779.0</v>
+        <v>5248.0</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
@@ -12641,13 +13829,13 @@
         <v>2043</v>
       </c>
       <c r="B35" t="n" s="0">
-        <v>8048.0</v>
+        <v>5969.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>7888.0</v>
+        <v>5852.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>7274.0</v>
+        <v>5588.0</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
@@ -12655,13 +13843,13 @@
         <v>2044</v>
       </c>
       <c r="B36" t="n" s="0">
-        <v>8575.0</v>
+        <v>6353.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>8414.0</v>
+        <v>6204.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>7783.0</v>
+        <v>5951.0</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
@@ -12669,13 +13857,13 @@
         <v>2045</v>
       </c>
       <c r="B37" t="n" s="0">
-        <v>9110.0</v>
+        <v>6741.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>8949.0</v>
+        <v>6568.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>8295.0</v>
+        <v>6330.0</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -12683,13 +13871,13 @@
         <v>2046</v>
       </c>
       <c r="B38" t="n" s="0">
-        <v>9656.0</v>
+        <v>7128.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>9489.0</v>
+        <v>6952.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>8824.0</v>
+        <v>6708.0</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
@@ -12697,13 +13885,13 @@
         <v>2047</v>
       </c>
       <c r="B39" t="n" s="0">
-        <v>10214.0</v>
+        <v>7536.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>10031.0</v>
+        <v>7345.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>9371.0</v>
+        <v>7098.0</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -12711,13 +13899,13 @@
         <v>2048</v>
       </c>
       <c r="B40" t="n" s="0">
-        <v>10772.0</v>
+        <v>7942.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>10587.0</v>
+        <v>7733.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>9919.0</v>
+        <v>7498.0</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
@@ -12725,13 +13913,13 @@
         <v>2049</v>
       </c>
       <c r="B41" t="n" s="0">
-        <v>11325.0</v>
+        <v>8334.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>11139.0</v>
+        <v>8116.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>10479.0</v>
+        <v>7893.0</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
@@ -12739,24 +13927,24 @@
         <v>2050</v>
       </c>
       <c r="B42" t="n" s="0">
-        <v>11875.0</v>
+        <v>8744.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>11681.0</v>
+        <v>8500.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>11039.0</v>
+        <v>8309.0</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="n" s="0">
-        <v>12427.0</v>
+        <v>9158.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>12221.0</v>
+        <v>8900.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>11596.0</v>
+        <v>8716.0</v>
       </c>
     </row>
   </sheetData>
@@ -12766,10 +13954,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD34EB04-9DCE-47D1-A678-837EC7AF32F4}">
-  <dimension ref="A1:A42"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12778,210 +13966,599 @@
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
+      <c r="B1" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>27</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="0">
         <v>2010</v>
       </c>
+      <c r="B2" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="0">
         <v>2011</v>
       </c>
+      <c r="B3" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>22.0</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="0">
         <v>2012</v>
       </c>
+      <c r="B4" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>32.0</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="0">
         <v>2013</v>
       </c>
+      <c r="B5" t="n" s="0">
+        <v>55.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>55.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>55.0</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="0">
         <v>2014</v>
       </c>
+      <c r="B6" t="n" s="0">
+        <v>108.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>108.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>108.0</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="0">
         <v>2015</v>
       </c>
+      <c r="B7" t="n" s="0">
+        <v>155.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>155.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>155.0</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="0">
         <v>2016</v>
       </c>
+      <c r="B8" t="n" s="0">
+        <v>206.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>206.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>206.0</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="0">
         <v>2017</v>
       </c>
+      <c r="B9" t="n" s="0">
+        <v>258.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>258.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>258.0</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="0">
         <v>2018</v>
       </c>
+      <c r="B10" t="n" s="0">
+        <v>310.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>310.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>310.0</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="0">
         <v>2019</v>
       </c>
+      <c r="B11" t="n" s="0">
+        <v>382.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>382.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>382.0</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="0">
         <v>2020</v>
       </c>
+      <c r="B12" t="n" s="0">
+        <v>448.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>448.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>448.0</v>
+      </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="0">
         <v>2021</v>
       </c>
+      <c r="B13" t="n" s="0">
+        <v>501.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>501.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>501.0</v>
+      </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="0">
         <v>2022</v>
       </c>
+      <c r="B14" t="n" s="0">
+        <v>541.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>541.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>541.0</v>
+      </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="0">
         <v>2023</v>
       </c>
+      <c r="B15" t="n" s="0">
+        <v>564.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>564.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>564.0</v>
+      </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="0">
         <v>2024</v>
       </c>
+      <c r="B16" t="n" s="0">
+        <v>575.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>575.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>575.0</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="0">
         <v>2025</v>
       </c>
+      <c r="B17" t="n" s="0">
+        <v>575.0</v>
+      </c>
+      <c r="C17" t="n" s="0">
+        <v>575.0</v>
+      </c>
+      <c r="D17" t="n" s="0">
+        <v>575.0</v>
+      </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="0">
         <v>2026</v>
       </c>
+      <c r="B18" t="n" s="0">
+        <v>577.0</v>
+      </c>
+      <c r="C18" t="n" s="0">
+        <v>582.0</v>
+      </c>
+      <c r="D18" t="n" s="0">
+        <v>575.0</v>
+      </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="0">
         <v>2027</v>
       </c>
+      <c r="B19" t="n" s="0">
+        <v>588.0</v>
+      </c>
+      <c r="C19" t="n" s="0">
+        <v>614.0</v>
+      </c>
+      <c r="D19" t="n" s="0">
+        <v>577.0</v>
+      </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="0">
         <v>2028</v>
       </c>
+      <c r="B20" t="n" s="0">
+        <v>612.0</v>
+      </c>
+      <c r="C20" t="n" s="0">
+        <v>648.0</v>
+      </c>
+      <c r="D20" t="n" s="0">
+        <v>593.0</v>
+      </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="0">
         <v>2029</v>
       </c>
+      <c r="B21" t="n" s="0">
+        <v>651.0</v>
+      </c>
+      <c r="C21" t="n" s="0">
+        <v>684.0</v>
+      </c>
+      <c r="D21" t="n" s="0">
+        <v>630.0</v>
+      </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="0">
         <v>2030</v>
       </c>
+      <c r="B22" t="n" s="0">
+        <v>680.0</v>
+      </c>
+      <c r="C22" t="n" s="0">
+        <v>715.0</v>
+      </c>
+      <c r="D22" t="n" s="0">
+        <v>652.0</v>
+      </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="0">
         <v>2031</v>
       </c>
+      <c r="B23" t="n" s="0">
+        <v>712.0</v>
+      </c>
+      <c r="C23" t="n" s="0">
+        <v>743.0</v>
+      </c>
+      <c r="D23" t="n" s="0">
+        <v>686.0</v>
+      </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="0">
         <v>2032</v>
       </c>
+      <c r="B24" t="n" s="0">
+        <v>734.0</v>
+      </c>
+      <c r="C24" t="n" s="0">
+        <v>759.0</v>
+      </c>
+      <c r="D24" t="n" s="0">
+        <v>708.0</v>
+      </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="0">
         <v>2033</v>
       </c>
+      <c r="B25" t="n" s="0">
+        <v>747.0</v>
+      </c>
+      <c r="C25" t="n" s="0">
+        <v>774.0</v>
+      </c>
+      <c r="D25" t="n" s="0">
+        <v>733.0</v>
+      </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="0">
         <v>2034</v>
       </c>
+      <c r="B26" t="n" s="0">
+        <v>762.0</v>
+      </c>
+      <c r="C26" t="n" s="0">
+        <v>796.0</v>
+      </c>
+      <c r="D26" t="n" s="0">
+        <v>751.0</v>
+      </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="0">
         <v>2035</v>
       </c>
+      <c r="B27" t="n" s="0">
+        <v>775.0</v>
+      </c>
+      <c r="C27" t="n" s="0">
+        <v>804.0</v>
+      </c>
+      <c r="D27" t="n" s="0">
+        <v>773.0</v>
+      </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="0">
         <v>2036</v>
       </c>
+      <c r="B28" t="n" s="0">
+        <v>792.0</v>
+      </c>
+      <c r="C28" t="n" s="0">
+        <v>818.0</v>
+      </c>
+      <c r="D28" t="n" s="0">
+        <v>789.0</v>
+      </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="0">
         <v>2037</v>
       </c>
+      <c r="B29" t="n" s="0">
+        <v>804.0</v>
+      </c>
+      <c r="C29" t="n" s="0">
+        <v>829.0</v>
+      </c>
+      <c r="D29" t="n" s="0">
+        <v>806.0</v>
+      </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="0">
         <v>2038</v>
       </c>
+      <c r="B30" t="n" s="0">
+        <v>813.0</v>
+      </c>
+      <c r="C30" t="n" s="0">
+        <v>837.0</v>
+      </c>
+      <c r="D30" t="n" s="0">
+        <v>820.0</v>
+      </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="0">
         <v>2039</v>
       </c>
+      <c r="B31" t="n" s="0">
+        <v>826.0</v>
+      </c>
+      <c r="C31" t="n" s="0">
+        <v>847.0</v>
+      </c>
+      <c r="D31" t="n" s="0">
+        <v>829.0</v>
+      </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="0">
         <v>2040</v>
       </c>
+      <c r="B32" t="n" s="0">
+        <v>839.0</v>
+      </c>
+      <c r="C32" t="n" s="0">
+        <v>849.0</v>
+      </c>
+      <c r="D32" t="n" s="0">
+        <v>838.0</v>
+      </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="0">
         <v>2041</v>
       </c>
+      <c r="B33" t="n" s="0">
+        <v>843.0</v>
+      </c>
+      <c r="C33" t="n" s="0">
+        <v>855.0</v>
+      </c>
+      <c r="D33" t="n" s="0">
+        <v>847.0</v>
+      </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="0">
         <v>2042</v>
       </c>
+      <c r="B34" t="n" s="0">
+        <v>848.0</v>
+      </c>
+      <c r="C34" t="n" s="0">
+        <v>864.0</v>
+      </c>
+      <c r="D34" t="n" s="0">
+        <v>852.0</v>
+      </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="0">
         <v>2043</v>
       </c>
+      <c r="B35" t="n" s="0">
+        <v>851.0</v>
+      </c>
+      <c r="C35" t="n" s="0">
+        <v>869.0</v>
+      </c>
+      <c r="D35" t="n" s="0">
+        <v>857.0</v>
+      </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="0">
         <v>2044</v>
       </c>
+      <c r="B36" t="n" s="0">
+        <v>856.0</v>
+      </c>
+      <c r="C36" t="n" s="0">
+        <v>871.0</v>
+      </c>
+      <c r="D36" t="n" s="0">
+        <v>862.0</v>
+      </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="0">
         <v>2045</v>
       </c>
+      <c r="B37" t="n" s="0">
+        <v>864.0</v>
+      </c>
+      <c r="C37" t="n" s="0">
+        <v>877.0</v>
+      </c>
+      <c r="D37" t="n" s="0">
+        <v>863.0</v>
+      </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="0">
         <v>2046</v>
       </c>
+      <c r="B38" t="n" s="0">
+        <v>866.0</v>
+      </c>
+      <c r="C38" t="n" s="0">
+        <v>881.0</v>
+      </c>
+      <c r="D38" t="n" s="0">
+        <v>865.0</v>
+      </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="0">
         <v>2047</v>
       </c>
+      <c r="B39" t="n" s="0">
+        <v>872.0</v>
+      </c>
+      <c r="C39" t="n" s="0">
+        <v>885.0</v>
+      </c>
+      <c r="D39" t="n" s="0">
+        <v>868.0</v>
+      </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="0">
         <v>2048</v>
       </c>
+      <c r="B40" t="n" s="0">
+        <v>875.0</v>
+      </c>
+      <c r="C40" t="n" s="0">
+        <v>885.0</v>
+      </c>
+      <c r="D40" t="n" s="0">
+        <v>871.0</v>
+      </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="0">
         <v>2049</v>
       </c>
+      <c r="B41" t="n" s="0">
+        <v>878.0</v>
+      </c>
+      <c r="C41" t="n" s="0">
+        <v>886.0</v>
+      </c>
+      <c r="D41" t="n" s="0">
+        <v>875.0</v>
+      </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="0">
         <v>2050</v>
+      </c>
+      <c r="B42" t="n" s="0">
+        <v>883.0</v>
+      </c>
+      <c r="C42" t="n" s="0">
+        <v>888.0</v>
+      </c>
+      <c r="D42" t="n" s="0">
+        <v>879.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="n" s="0">
+        <v>885.0</v>
+      </c>
+      <c r="C43" t="n" s="0">
+        <v>888.0</v>
+      </c>
+      <c r="D43" t="n" s="0">
+        <v>881.0</v>
       </c>
     </row>
   </sheetData>
@@ -12991,10 +14568,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24C6663-4258-4BB1-8B23-9D9048F58A3A}">
-  <dimension ref="A1:A42"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13003,210 +14580,599 @@
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
+      <c r="B1" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>27</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="0">
         <v>2010</v>
       </c>
+      <c r="B2" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="0">
         <v>2011</v>
       </c>
+      <c r="B3" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>21.0</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="0">
         <v>2012</v>
       </c>
+      <c r="B4" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>23.0</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="0">
         <v>2013</v>
       </c>
+      <c r="B5" t="n" s="0">
+        <v>43.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>43.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>43.0</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="0">
         <v>2014</v>
       </c>
+      <c r="B6" t="n" s="0">
+        <v>63.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>63.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>63.0</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="0">
         <v>2015</v>
       </c>
+      <c r="B7" t="n" s="0">
+        <v>90.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>90.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>90.0</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="0">
         <v>2016</v>
       </c>
+      <c r="B8" t="n" s="0">
+        <v>144.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>144.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>144.0</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="0">
         <v>2017</v>
       </c>
+      <c r="B9" t="n" s="0">
+        <v>215.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>215.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>215.0</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="0">
         <v>2018</v>
       </c>
+      <c r="B10" t="n" s="0">
+        <v>326.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>326.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>326.0</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="0">
         <v>2019</v>
       </c>
+      <c r="B11" t="n" s="0">
+        <v>514.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>514.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>514.0</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="0">
         <v>2020</v>
       </c>
+      <c r="B12" t="n" s="0">
+        <v>713.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>713.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>713.0</v>
+      </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="0">
         <v>2021</v>
       </c>
+      <c r="B13" t="n" s="0">
+        <v>882.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>882.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>882.0</v>
+      </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="0">
         <v>2022</v>
       </c>
+      <c r="B14" t="n" s="0">
+        <v>1005.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>1005.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>1005.0</v>
+      </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="0">
         <v>2023</v>
       </c>
+      <c r="B15" t="n" s="0">
+        <v>1182.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>1182.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>1182.0</v>
+      </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="0">
         <v>2024</v>
       </c>
+      <c r="B16" t="n" s="0">
+        <v>1327.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>1327.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>1327.0</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="0">
         <v>2025</v>
       </c>
+      <c r="B17" t="n" s="0">
+        <v>1428.0</v>
+      </c>
+      <c r="C17" t="n" s="0">
+        <v>1465.0</v>
+      </c>
+      <c r="D17" t="n" s="0">
+        <v>1420.0</v>
+      </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="0">
         <v>2026</v>
       </c>
+      <c r="B18" t="n" s="0">
+        <v>1570.0</v>
+      </c>
+      <c r="C18" t="n" s="0">
+        <v>1666.0</v>
+      </c>
+      <c r="D18" t="n" s="0">
+        <v>1551.0</v>
+      </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="0">
         <v>2027</v>
       </c>
+      <c r="B19" t="n" s="0">
+        <v>1786.0</v>
+      </c>
+      <c r="C19" t="n" s="0">
+        <v>1947.0</v>
+      </c>
+      <c r="D19" t="n" s="0">
+        <v>1733.0</v>
+      </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="0">
         <v>2028</v>
       </c>
+      <c r="B20" t="n" s="0">
+        <v>2052.0</v>
+      </c>
+      <c r="C20" t="n" s="0">
+        <v>2277.0</v>
+      </c>
+      <c r="D20" t="n" s="0">
+        <v>1981.0</v>
+      </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="0">
         <v>2029</v>
       </c>
+      <c r="B21" t="n" s="0">
+        <v>2347.0</v>
+      </c>
+      <c r="C21" t="n" s="0">
+        <v>2635.0</v>
+      </c>
+      <c r="D21" t="n" s="0">
+        <v>2268.0</v>
+      </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="0">
         <v>2030</v>
       </c>
+      <c r="B22" t="n" s="0">
+        <v>2687.0</v>
+      </c>
+      <c r="C22" t="n" s="0">
+        <v>3003.0</v>
+      </c>
+      <c r="D22" t="n" s="0">
+        <v>2566.0</v>
+      </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="0">
         <v>2031</v>
       </c>
+      <c r="B23" t="n" s="0">
+        <v>3050.0</v>
+      </c>
+      <c r="C23" t="n" s="0">
+        <v>3400.0</v>
+      </c>
+      <c r="D23" t="n" s="0">
+        <v>2902.0</v>
+      </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="0">
         <v>2032</v>
       </c>
+      <c r="B24" t="n" s="0">
+        <v>3412.0</v>
+      </c>
+      <c r="C24" t="n" s="0">
+        <v>3800.0</v>
+      </c>
+      <c r="D24" t="n" s="0">
+        <v>3234.0</v>
+      </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="0">
         <v>2033</v>
       </c>
+      <c r="B25" t="n" s="0">
+        <v>3804.0</v>
+      </c>
+      <c r="C25" t="n" s="0">
+        <v>4219.0</v>
+      </c>
+      <c r="D25" t="n" s="0">
+        <v>3592.0</v>
+      </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="0">
         <v>2034</v>
       </c>
+      <c r="B26" t="n" s="0">
+        <v>4203.0</v>
+      </c>
+      <c r="C26" t="n" s="0">
+        <v>4643.0</v>
+      </c>
+      <c r="D26" t="n" s="0">
+        <v>3959.0</v>
+      </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="0">
         <v>2035</v>
       </c>
+      <c r="B27" t="n" s="0">
+        <v>4620.0</v>
+      </c>
+      <c r="C27" t="n" s="0">
+        <v>5071.0</v>
+      </c>
+      <c r="D27" t="n" s="0">
+        <v>4347.0</v>
+      </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="0">
         <v>2036</v>
       </c>
+      <c r="B28" t="n" s="0">
+        <v>5038.0</v>
+      </c>
+      <c r="C28" t="n" s="0">
+        <v>5521.0</v>
+      </c>
+      <c r="D28" t="n" s="0">
+        <v>4738.0</v>
+      </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="0">
         <v>2037</v>
       </c>
+      <c r="B29" t="n" s="0">
+        <v>5468.0</v>
+      </c>
+      <c r="C29" t="n" s="0">
+        <v>5973.0</v>
+      </c>
+      <c r="D29" t="n" s="0">
+        <v>5143.0</v>
+      </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="0">
         <v>2038</v>
       </c>
+      <c r="B30" t="n" s="0">
+        <v>5901.0</v>
+      </c>
+      <c r="C30" t="n" s="0">
+        <v>6434.0</v>
+      </c>
+      <c r="D30" t="n" s="0">
+        <v>5551.0</v>
+      </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="0">
         <v>2039</v>
       </c>
+      <c r="B31" t="n" s="0">
+        <v>6342.0</v>
+      </c>
+      <c r="C31" t="n" s="0">
+        <v>6906.0</v>
+      </c>
+      <c r="D31" t="n" s="0">
+        <v>5975.0</v>
+      </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="0">
         <v>2040</v>
       </c>
+      <c r="B32" t="n" s="0">
+        <v>6795.0</v>
+      </c>
+      <c r="C32" t="n" s="0">
+        <v>7374.0</v>
+      </c>
+      <c r="D32" t="n" s="0">
+        <v>6403.0</v>
+      </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="0">
         <v>2041</v>
       </c>
+      <c r="B33" t="n" s="0">
+        <v>7245.0</v>
+      </c>
+      <c r="C33" t="n" s="0">
+        <v>7851.0</v>
+      </c>
+      <c r="D33" t="n" s="0">
+        <v>6840.0</v>
+      </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="0">
         <v>2042</v>
       </c>
+      <c r="B34" t="n" s="0">
+        <v>7716.0</v>
+      </c>
+      <c r="C34" t="n" s="0">
+        <v>8345.0</v>
+      </c>
+      <c r="D34" t="n" s="0">
+        <v>7282.0</v>
+      </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="0">
         <v>2043</v>
       </c>
+      <c r="B35" t="n" s="0">
+        <v>8183.0</v>
+      </c>
+      <c r="C35" t="n" s="0">
+        <v>8826.0</v>
+      </c>
+      <c r="D35" t="n" s="0">
+        <v>7734.0</v>
+      </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="0">
         <v>2044</v>
       </c>
+      <c r="B36" t="n" s="0">
+        <v>8661.0</v>
+      </c>
+      <c r="C36" t="n" s="0">
+        <v>9322.0</v>
+      </c>
+      <c r="D36" t="n" s="0">
+        <v>8195.0</v>
+      </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="0">
         <v>2045</v>
       </c>
+      <c r="B37" t="n" s="0">
+        <v>9142.0</v>
+      </c>
+      <c r="C37" t="n" s="0">
+        <v>9816.0</v>
+      </c>
+      <c r="D37" t="n" s="0">
+        <v>8666.0</v>
+      </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="0">
         <v>2046</v>
       </c>
+      <c r="B38" t="n" s="0">
+        <v>9616.0</v>
+      </c>
+      <c r="C38" t="n" s="0">
+        <v>10305.0</v>
+      </c>
+      <c r="D38" t="n" s="0">
+        <v>9144.0</v>
+      </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="0">
         <v>2047</v>
       </c>
+      <c r="B39" t="n" s="0">
+        <v>10105.0</v>
+      </c>
+      <c r="C39" t="n" s="0">
+        <v>10806.0</v>
+      </c>
+      <c r="D39" t="n" s="0">
+        <v>9624.0</v>
+      </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="0">
         <v>2048</v>
       </c>
+      <c r="B40" t="n" s="0">
+        <v>10605.0</v>
+      </c>
+      <c r="C40" t="n" s="0">
+        <v>11287.0</v>
+      </c>
+      <c r="D40" t="n" s="0">
+        <v>10105.0</v>
+      </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="0">
         <v>2049</v>
       </c>
+      <c r="B41" t="n" s="0">
+        <v>11097.0</v>
+      </c>
+      <c r="C41" t="n" s="0">
+        <v>11755.0</v>
+      </c>
+      <c r="D41" t="n" s="0">
+        <v>10583.0</v>
+      </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="0">
         <v>2050</v>
+      </c>
+      <c r="B42" t="n" s="0">
+        <v>11592.0</v>
+      </c>
+      <c r="C42" t="n" s="0">
+        <v>12216.0</v>
+      </c>
+      <c r="D42" t="n" s="0">
+        <v>11073.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="n" s="0">
+        <v>12079.0</v>
+      </c>
+      <c r="C43" t="n" s="0">
+        <v>12664.0</v>
+      </c>
+      <c r="D43" t="n" s="0">
+        <v>11541.0</v>
       </c>
     </row>
   </sheetData>
@@ -13216,10 +15182,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8DEA5D-7D16-4D7C-80CC-6B52927EB1DB}">
-  <dimension ref="A1:A42"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13228,210 +15194,599 @@
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
+      <c r="B1" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>30</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="0">
         <v>2010</v>
       </c>
+      <c r="B2" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="0">
         <v>2011</v>
       </c>
+      <c r="B3" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>22.0</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="0">
         <v>2012</v>
       </c>
+      <c r="B4" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>32.0</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="0">
         <v>2013</v>
       </c>
+      <c r="B5" t="n" s="0">
+        <v>55.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>55.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>55.0</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="0">
         <v>2014</v>
       </c>
+      <c r="B6" t="n" s="0">
+        <v>108.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>108.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>108.0</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="0">
         <v>2015</v>
       </c>
+      <c r="B7" t="n" s="0">
+        <v>155.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>155.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>155.0</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="0">
         <v>2016</v>
       </c>
+      <c r="B8" t="n" s="0">
+        <v>206.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>206.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>206.0</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="0">
         <v>2017</v>
       </c>
+      <c r="B9" t="n" s="0">
+        <v>258.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>258.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>258.0</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="0">
         <v>2018</v>
       </c>
+      <c r="B10" t="n" s="0">
+        <v>310.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>310.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>310.0</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="0">
         <v>2019</v>
       </c>
+      <c r="B11" t="n" s="0">
+        <v>382.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>382.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>382.0</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="0">
         <v>2020</v>
       </c>
+      <c r="B12" t="n" s="0">
+        <v>448.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>448.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>448.0</v>
+      </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="0">
         <v>2021</v>
       </c>
+      <c r="B13" t="n" s="0">
+        <v>501.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>501.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>501.0</v>
+      </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="0">
         <v>2022</v>
       </c>
+      <c r="B14" t="n" s="0">
+        <v>541.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>541.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>541.0</v>
+      </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="0">
         <v>2023</v>
       </c>
+      <c r="B15" t="n" s="0">
+        <v>564.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>564.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>564.0</v>
+      </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="0">
         <v>2024</v>
       </c>
+      <c r="B16" t="n" s="0">
+        <v>575.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>575.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>575.0</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="0">
         <v>2025</v>
       </c>
+      <c r="B17" t="n" s="0">
+        <v>575.0</v>
+      </c>
+      <c r="C17" t="n" s="0">
+        <v>575.0</v>
+      </c>
+      <c r="D17" t="n" s="0">
+        <v>575.0</v>
+      </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="0">
         <v>2026</v>
       </c>
+      <c r="B18" t="n" s="0">
+        <v>575.0</v>
+      </c>
+      <c r="C18" t="n" s="0">
+        <v>575.0</v>
+      </c>
+      <c r="D18" t="n" s="0">
+        <v>575.0</v>
+      </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="0">
         <v>2027</v>
       </c>
+      <c r="B19" t="n" s="0">
+        <v>575.0</v>
+      </c>
+      <c r="C19" t="n" s="0">
+        <v>575.0</v>
+      </c>
+      <c r="D19" t="n" s="0">
+        <v>575.0</v>
+      </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="0">
         <v>2028</v>
       </c>
+      <c r="B20" t="n" s="0">
+        <v>578.0</v>
+      </c>
+      <c r="C20" t="n" s="0">
+        <v>578.0</v>
+      </c>
+      <c r="D20" t="n" s="0">
+        <v>576.0</v>
+      </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="0">
         <v>2029</v>
       </c>
+      <c r="B21" t="n" s="0">
+        <v>583.0</v>
+      </c>
+      <c r="C21" t="n" s="0">
+        <v>582.0</v>
+      </c>
+      <c r="D21" t="n" s="0">
+        <v>585.0</v>
+      </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="0">
         <v>2030</v>
       </c>
+      <c r="B22" t="n" s="0">
+        <v>593.0</v>
+      </c>
+      <c r="C22" t="n" s="0">
+        <v>595.0</v>
+      </c>
+      <c r="D22" t="n" s="0">
+        <v>594.0</v>
+      </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="0">
         <v>2031</v>
       </c>
+      <c r="B23" t="n" s="0">
+        <v>607.0</v>
+      </c>
+      <c r="C23" t="n" s="0">
+        <v>612.0</v>
+      </c>
+      <c r="D23" t="n" s="0">
+        <v>603.0</v>
+      </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="0">
         <v>2032</v>
       </c>
+      <c r="B24" t="n" s="0">
+        <v>629.0</v>
+      </c>
+      <c r="C24" t="n" s="0">
+        <v>625.0</v>
+      </c>
+      <c r="D24" t="n" s="0">
+        <v>620.0</v>
+      </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="0">
         <v>2033</v>
       </c>
+      <c r="B25" t="n" s="0">
+        <v>647.0</v>
+      </c>
+      <c r="C25" t="n" s="0">
+        <v>648.0</v>
+      </c>
+      <c r="D25" t="n" s="0">
+        <v>635.0</v>
+      </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="0">
         <v>2034</v>
       </c>
+      <c r="B26" t="n" s="0">
+        <v>665.0</v>
+      </c>
+      <c r="C26" t="n" s="0">
+        <v>666.0</v>
+      </c>
+      <c r="D26" t="n" s="0">
+        <v>655.0</v>
+      </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="0">
         <v>2035</v>
       </c>
+      <c r="B27" t="n" s="0">
+        <v>675.0</v>
+      </c>
+      <c r="C27" t="n" s="0">
+        <v>686.0</v>
+      </c>
+      <c r="D27" t="n" s="0">
+        <v>678.0</v>
+      </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="0">
         <v>2036</v>
       </c>
+      <c r="B28" t="n" s="0">
+        <v>692.0</v>
+      </c>
+      <c r="C28" t="n" s="0">
+        <v>698.0</v>
+      </c>
+      <c r="D28" t="n" s="0">
+        <v>688.0</v>
+      </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="0">
         <v>2037</v>
       </c>
+      <c r="B29" t="n" s="0">
+        <v>707.0</v>
+      </c>
+      <c r="C29" t="n" s="0">
+        <v>720.0</v>
+      </c>
+      <c r="D29" t="n" s="0">
+        <v>706.0</v>
+      </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="0">
         <v>2038</v>
       </c>
+      <c r="B30" t="n" s="0">
+        <v>716.0</v>
+      </c>
+      <c r="C30" t="n" s="0">
+        <v>739.0</v>
+      </c>
+      <c r="D30" t="n" s="0">
+        <v>722.0</v>
+      </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="0">
         <v>2039</v>
       </c>
+      <c r="B31" t="n" s="0">
+        <v>733.0</v>
+      </c>
+      <c r="C31" t="n" s="0">
+        <v>754.0</v>
+      </c>
+      <c r="D31" t="n" s="0">
+        <v>730.0</v>
+      </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="0">
         <v>2040</v>
       </c>
+      <c r="B32" t="n" s="0">
+        <v>751.0</v>
+      </c>
+      <c r="C32" t="n" s="0">
+        <v>760.0</v>
+      </c>
+      <c r="D32" t="n" s="0">
+        <v>740.0</v>
+      </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="0">
         <v>2041</v>
       </c>
+      <c r="B33" t="n" s="0">
+        <v>765.0</v>
+      </c>
+      <c r="C33" t="n" s="0">
+        <v>769.0</v>
+      </c>
+      <c r="D33" t="n" s="0">
+        <v>751.0</v>
+      </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="0">
         <v>2042</v>
       </c>
+      <c r="B34" t="n" s="0">
+        <v>780.0</v>
+      </c>
+      <c r="C34" t="n" s="0">
+        <v>773.0</v>
+      </c>
+      <c r="D34" t="n" s="0">
+        <v>765.0</v>
+      </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="0">
         <v>2043</v>
       </c>
+      <c r="B35" t="n" s="0">
+        <v>795.0</v>
+      </c>
+      <c r="C35" t="n" s="0">
+        <v>779.0</v>
+      </c>
+      <c r="D35" t="n" s="0">
+        <v>775.0</v>
+      </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="0">
         <v>2044</v>
       </c>
+      <c r="B36" t="n" s="0">
+        <v>808.0</v>
+      </c>
+      <c r="C36" t="n" s="0">
+        <v>788.0</v>
+      </c>
+      <c r="D36" t="n" s="0">
+        <v>792.0</v>
+      </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="0">
         <v>2045</v>
       </c>
+      <c r="B37" t="n" s="0">
+        <v>814.0</v>
+      </c>
+      <c r="C37" t="n" s="0">
+        <v>795.0</v>
+      </c>
+      <c r="D37" t="n" s="0">
+        <v>804.0</v>
+      </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="0">
         <v>2046</v>
       </c>
+      <c r="B38" t="n" s="0">
+        <v>820.0</v>
+      </c>
+      <c r="C38" t="n" s="0">
+        <v>804.0</v>
+      </c>
+      <c r="D38" t="n" s="0">
+        <v>810.0</v>
+      </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="0">
         <v>2047</v>
       </c>
+      <c r="B39" t="n" s="0">
+        <v>828.0</v>
+      </c>
+      <c r="C39" t="n" s="0">
+        <v>815.0</v>
+      </c>
+      <c r="D39" t="n" s="0">
+        <v>818.0</v>
+      </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="0">
         <v>2048</v>
       </c>
+      <c r="B40" t="n" s="0">
+        <v>841.0</v>
+      </c>
+      <c r="C40" t="n" s="0">
+        <v>823.0</v>
+      </c>
+      <c r="D40" t="n" s="0">
+        <v>825.0</v>
+      </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="0">
         <v>2049</v>
       </c>
+      <c r="B41" t="n" s="0">
+        <v>846.0</v>
+      </c>
+      <c r="C41" t="n" s="0">
+        <v>827.0</v>
+      </c>
+      <c r="D41" t="n" s="0">
+        <v>832.0</v>
+      </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="0">
         <v>2050</v>
+      </c>
+      <c r="B42" t="n" s="0">
+        <v>848.0</v>
+      </c>
+      <c r="C42" t="n" s="0">
+        <v>833.0</v>
+      </c>
+      <c r="D42" t="n" s="0">
+        <v>837.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="n" s="0">
+        <v>850.0</v>
+      </c>
+      <c r="C43" t="n" s="0">
+        <v>840.0</v>
+      </c>
+      <c r="D43" t="n" s="0">
+        <v>839.0</v>
       </c>
     </row>
   </sheetData>
@@ -13441,10 +15796,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DCED01-41C4-4293-BF47-F8802DC6CB72}">
-  <dimension ref="A1:A42"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD51"/>
+      <selection activeCell="H28" sqref="H1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13453,210 +15808,599 @@
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
+      <c r="B1" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>30</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="0">
         <v>2010</v>
       </c>
+      <c r="B2" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="0">
         <v>2011</v>
       </c>
+      <c r="B3" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>21.0</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="0">
         <v>2012</v>
       </c>
+      <c r="B4" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>23.0</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="0">
         <v>2013</v>
       </c>
+      <c r="B5" t="n" s="0">
+        <v>43.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>43.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>43.0</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="0">
         <v>2014</v>
       </c>
+      <c r="B6" t="n" s="0">
+        <v>63.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>63.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>63.0</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="0">
         <v>2015</v>
       </c>
+      <c r="B7" t="n" s="0">
+        <v>90.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>90.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>90.0</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="0">
         <v>2016</v>
       </c>
+      <c r="B8" t="n" s="0">
+        <v>144.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>144.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>144.0</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="0">
         <v>2017</v>
       </c>
+      <c r="B9" t="n" s="0">
+        <v>215.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>215.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>215.0</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="0">
         <v>2018</v>
       </c>
+      <c r="B10" t="n" s="0">
+        <v>326.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>326.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>326.0</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="0">
         <v>2019</v>
       </c>
+      <c r="B11" t="n" s="0">
+        <v>514.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>514.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>514.0</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="0">
         <v>2020</v>
       </c>
+      <c r="B12" t="n" s="0">
+        <v>713.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>713.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>713.0</v>
+      </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="0">
         <v>2021</v>
       </c>
+      <c r="B13" t="n" s="0">
+        <v>882.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>882.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>882.0</v>
+      </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="0">
         <v>2022</v>
       </c>
+      <c r="B14" t="n" s="0">
+        <v>1005.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>1005.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>1005.0</v>
+      </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="0">
         <v>2023</v>
       </c>
+      <c r="B15" t="n" s="0">
+        <v>1182.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>1182.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>1182.0</v>
+      </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="0">
         <v>2024</v>
       </c>
+      <c r="B16" t="n" s="0">
+        <v>1327.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>1327.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>1327.0</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="0">
         <v>2025</v>
       </c>
+      <c r="B17" t="n" s="0">
+        <v>1428.0</v>
+      </c>
+      <c r="C17" t="n" s="0">
+        <v>1441.0</v>
+      </c>
+      <c r="D17" t="n" s="0">
+        <v>1437.0</v>
+      </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="0">
         <v>2026</v>
       </c>
+      <c r="B18" t="n" s="0">
+        <v>1536.0</v>
+      </c>
+      <c r="C18" t="n" s="0">
+        <v>1557.0</v>
+      </c>
+      <c r="D18" t="n" s="0">
+        <v>1535.0</v>
+      </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="0">
         <v>2027</v>
       </c>
+      <c r="B19" t="n" s="0">
+        <v>1656.0</v>
+      </c>
+      <c r="C19" t="n" s="0">
+        <v>1679.0</v>
+      </c>
+      <c r="D19" t="n" s="0">
+        <v>1640.0</v>
+      </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="0">
         <v>2028</v>
       </c>
+      <c r="B20" t="n" s="0">
+        <v>1786.0</v>
+      </c>
+      <c r="C20" t="n" s="0">
+        <v>1812.0</v>
+      </c>
+      <c r="D20" t="n" s="0">
+        <v>1761.0</v>
+      </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="0">
         <v>2029</v>
       </c>
+      <c r="B21" t="n" s="0">
+        <v>1934.0</v>
+      </c>
+      <c r="C21" t="n" s="0">
+        <v>1986.0</v>
+      </c>
+      <c r="D21" t="n" s="0">
+        <v>1910.0</v>
+      </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="0">
         <v>2030</v>
       </c>
+      <c r="B22" t="n" s="0">
+        <v>2101.0</v>
+      </c>
+      <c r="C22" t="n" s="0">
+        <v>2175.0</v>
+      </c>
+      <c r="D22" t="n" s="0">
+        <v>2083.0</v>
+      </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="0">
         <v>2031</v>
       </c>
+      <c r="B23" t="n" s="0">
+        <v>2296.0</v>
+      </c>
+      <c r="C23" t="n" s="0">
+        <v>2375.0</v>
+      </c>
+      <c r="D23" t="n" s="0">
+        <v>2267.0</v>
+      </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="0">
         <v>2032</v>
       </c>
+      <c r="B24" t="n" s="0">
+        <v>2513.0</v>
+      </c>
+      <c r="C24" t="n" s="0">
+        <v>2600.0</v>
+      </c>
+      <c r="D24" t="n" s="0">
+        <v>2478.0</v>
+      </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="0">
         <v>2033</v>
       </c>
+      <c r="B25" t="n" s="0">
+        <v>2744.0</v>
+      </c>
+      <c r="C25" t="n" s="0">
+        <v>2830.0</v>
+      </c>
+      <c r="D25" t="n" s="0">
+        <v>2704.0</v>
+      </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="0">
         <v>2034</v>
       </c>
+      <c r="B26" t="n" s="0">
+        <v>2990.0</v>
+      </c>
+      <c r="C26" t="n" s="0">
+        <v>3087.0</v>
+      </c>
+      <c r="D26" t="n" s="0">
+        <v>2943.0</v>
+      </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="0">
         <v>2035</v>
       </c>
+      <c r="B27" t="n" s="0">
+        <v>3263.0</v>
+      </c>
+      <c r="C27" t="n" s="0">
+        <v>3360.0</v>
+      </c>
+      <c r="D27" t="n" s="0">
+        <v>3192.0</v>
+      </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="0">
         <v>2036</v>
       </c>
+      <c r="B28" t="n" s="0">
+        <v>3545.0</v>
+      </c>
+      <c r="C28" t="n" s="0">
+        <v>3651.0</v>
+      </c>
+      <c r="D28" t="n" s="0">
+        <v>3460.0</v>
+      </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="0">
         <v>2037</v>
       </c>
+      <c r="B29" t="n" s="0">
+        <v>3831.0</v>
+      </c>
+      <c r="C29" t="n" s="0">
+        <v>3945.0</v>
+      </c>
+      <c r="D29" t="n" s="0">
+        <v>3740.0</v>
+      </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="0">
         <v>2038</v>
       </c>
+      <c r="B30" t="n" s="0">
+        <v>4130.0</v>
+      </c>
+      <c r="C30" t="n" s="0">
+        <v>4263.0</v>
+      </c>
+      <c r="D30" t="n" s="0">
+        <v>4047.0</v>
+      </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="0">
         <v>2039</v>
       </c>
+      <c r="B31" t="n" s="0">
+        <v>4425.0</v>
+      </c>
+      <c r="C31" t="n" s="0">
+        <v>4582.0</v>
+      </c>
+      <c r="D31" t="n" s="0">
+        <v>4362.0</v>
+      </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="0">
         <v>2040</v>
       </c>
+      <c r="B32" t="n" s="0">
+        <v>4742.0</v>
+      </c>
+      <c r="C32" t="n" s="0">
+        <v>4902.0</v>
+      </c>
+      <c r="D32" t="n" s="0">
+        <v>4691.0</v>
+      </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="0">
         <v>2041</v>
       </c>
+      <c r="B33" t="n" s="0">
+        <v>5062.0</v>
+      </c>
+      <c r="C33" t="n" s="0">
+        <v>5237.0</v>
+      </c>
+      <c r="D33" t="n" s="0">
+        <v>5027.0</v>
+      </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="0">
         <v>2042</v>
       </c>
+      <c r="B34" t="n" s="0">
+        <v>5406.0</v>
+      </c>
+      <c r="C34" t="n" s="0">
+        <v>5588.0</v>
+      </c>
+      <c r="D34" t="n" s="0">
+        <v>5374.0</v>
+      </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="0">
         <v>2043</v>
       </c>
+      <c r="B35" t="n" s="0">
+        <v>5749.0</v>
+      </c>
+      <c r="C35" t="n" s="0">
+        <v>5965.0</v>
+      </c>
+      <c r="D35" t="n" s="0">
+        <v>5750.0</v>
+      </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="0">
         <v>2044</v>
       </c>
+      <c r="B36" t="n" s="0">
+        <v>6121.0</v>
+      </c>
+      <c r="C36" t="n" s="0">
+        <v>6339.0</v>
+      </c>
+      <c r="D36" t="n" s="0">
+        <v>6119.0</v>
+      </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="0">
         <v>2045</v>
       </c>
+      <c r="B37" t="n" s="0">
+        <v>6494.0</v>
+      </c>
+      <c r="C37" t="n" s="0">
+        <v>6729.0</v>
+      </c>
+      <c r="D37" t="n" s="0">
+        <v>6500.0</v>
+      </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="0">
         <v>2046</v>
       </c>
+      <c r="B38" t="n" s="0">
+        <v>6871.0</v>
+      </c>
+      <c r="C38" t="n" s="0">
+        <v>7124.0</v>
+      </c>
+      <c r="D38" t="n" s="0">
+        <v>6879.0</v>
+      </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="0">
         <v>2047</v>
       </c>
+      <c r="B39" t="n" s="0">
+        <v>7260.0</v>
+      </c>
+      <c r="C39" t="n" s="0">
+        <v>7536.0</v>
+      </c>
+      <c r="D39" t="n" s="0">
+        <v>7284.0</v>
+      </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="0">
         <v>2048</v>
       </c>
+      <c r="B40" t="n" s="0">
+        <v>7636.0</v>
+      </c>
+      <c r="C40" t="n" s="0">
+        <v>7939.0</v>
+      </c>
+      <c r="D40" t="n" s="0">
+        <v>7683.0</v>
+      </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="0">
         <v>2049</v>
       </c>
+      <c r="B41" t="n" s="0">
+        <v>8029.0</v>
+      </c>
+      <c r="C41" t="n" s="0">
+        <v>8352.0</v>
+      </c>
+      <c r="D41" t="n" s="0">
+        <v>8085.0</v>
+      </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="0">
         <v>2050</v>
+      </c>
+      <c r="B42" t="n" s="0">
+        <v>8414.0</v>
+      </c>
+      <c r="C42" t="n" s="0">
+        <v>8768.0</v>
+      </c>
+      <c r="D42" t="n" s="0">
+        <v>8482.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="n" s="0">
+        <v>8813.0</v>
+      </c>
+      <c r="C43" t="n" s="0">
+        <v>9184.0</v>
+      </c>
+      <c r="D43" t="n" s="0">
+        <v>8887.0</v>
       </c>
     </row>
   </sheetData>
@@ -13666,10 +16410,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23AC7A9F-6D73-4CFF-96A3-71BAE4EEE7D4}">
-  <dimension ref="A1:A42"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD51"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K28" sqref="K1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13678,210 +16422,599 @@
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
+      <c r="B1" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>33</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="0">
         <v>2010</v>
       </c>
+      <c r="B2" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="0">
         <v>2011</v>
       </c>
+      <c r="B3" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>22.0</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="0">
         <v>2012</v>
       </c>
+      <c r="B4" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>32.0</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="0">
         <v>2013</v>
       </c>
+      <c r="B5" t="n" s="0">
+        <v>55.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>55.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>55.0</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="0">
         <v>2014</v>
       </c>
+      <c r="B6" t="n" s="0">
+        <v>108.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>108.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>108.0</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="0">
         <v>2015</v>
       </c>
+      <c r="B7" t="n" s="0">
+        <v>155.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>155.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>155.0</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="0">
         <v>2016</v>
       </c>
+      <c r="B8" t="n" s="0">
+        <v>206.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>206.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>206.0</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="0">
         <v>2017</v>
       </c>
+      <c r="B9" t="n" s="0">
+        <v>258.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>258.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>258.0</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="0">
         <v>2018</v>
       </c>
+      <c r="B10" t="n" s="0">
+        <v>310.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>310.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>310.0</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="0">
         <v>2019</v>
       </c>
+      <c r="B11" t="n" s="0">
+        <v>382.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>382.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>382.0</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="0">
         <v>2020</v>
       </c>
+      <c r="B12" t="n" s="0">
+        <v>448.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>448.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>448.0</v>
+      </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="0">
         <v>2021</v>
       </c>
+      <c r="B13" t="n" s="0">
+        <v>501.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>501.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>501.0</v>
+      </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="0">
         <v>2022</v>
       </c>
+      <c r="B14" t="n" s="0">
+        <v>541.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>541.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>541.0</v>
+      </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="0">
         <v>2023</v>
       </c>
+      <c r="B15" t="n" s="0">
+        <v>564.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>564.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>564.0</v>
+      </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="0">
         <v>2024</v>
       </c>
+      <c r="B16" t="n" s="0">
+        <v>575.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>575.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>575.0</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="0">
         <v>2025</v>
       </c>
+      <c r="B17" t="n" s="0">
+        <v>575.0</v>
+      </c>
+      <c r="C17" t="n" s="0">
+        <v>575.0</v>
+      </c>
+      <c r="D17" t="n" s="0">
+        <v>575.0</v>
+      </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="0">
         <v>2026</v>
       </c>
+      <c r="B18" t="n" s="0">
+        <v>575.0</v>
+      </c>
+      <c r="C18" t="n" s="0">
+        <v>575.0</v>
+      </c>
+      <c r="D18" t="n" s="0">
+        <v>575.0</v>
+      </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="0">
         <v>2027</v>
       </c>
+      <c r="B19" t="n" s="0">
+        <v>575.0</v>
+      </c>
+      <c r="C19" t="n" s="0">
+        <v>581.0</v>
+      </c>
+      <c r="D19" t="n" s="0">
+        <v>593.0</v>
+      </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="0">
         <v>2028</v>
       </c>
+      <c r="B20" t="n" s="0">
+        <v>580.0</v>
+      </c>
+      <c r="C20" t="n" s="0">
+        <v>601.0</v>
+      </c>
+      <c r="D20" t="n" s="0">
+        <v>620.0</v>
+      </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="0">
         <v>2029</v>
       </c>
+      <c r="B21" t="n" s="0">
+        <v>596.0</v>
+      </c>
+      <c r="C21" t="n" s="0">
+        <v>635.0</v>
+      </c>
+      <c r="D21" t="n" s="0">
+        <v>646.0</v>
+      </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="0">
         <v>2030</v>
       </c>
+      <c r="B22" t="n" s="0">
+        <v>616.0</v>
+      </c>
+      <c r="C22" t="n" s="0">
+        <v>670.0</v>
+      </c>
+      <c r="D22" t="n" s="0">
+        <v>673.0</v>
+      </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="0">
         <v>2031</v>
       </c>
+      <c r="B23" t="n" s="0">
+        <v>649.0</v>
+      </c>
+      <c r="C23" t="n" s="0">
+        <v>696.0</v>
+      </c>
+      <c r="D23" t="n" s="0">
+        <v>698.0</v>
+      </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="0">
         <v>2032</v>
       </c>
+      <c r="B24" t="n" s="0">
+        <v>674.0</v>
+      </c>
+      <c r="C24" t="n" s="0">
+        <v>726.0</v>
+      </c>
+      <c r="D24" t="n" s="0">
+        <v>713.0</v>
+      </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="0">
         <v>2033</v>
       </c>
+      <c r="B25" t="n" s="0">
+        <v>699.0</v>
+      </c>
+      <c r="C25" t="n" s="0">
+        <v>748.0</v>
+      </c>
+      <c r="D25" t="n" s="0">
+        <v>734.0</v>
+      </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="0">
         <v>2034</v>
       </c>
+      <c r="B26" t="n" s="0">
+        <v>725.0</v>
+      </c>
+      <c r="C26" t="n" s="0">
+        <v>765.0</v>
+      </c>
+      <c r="D26" t="n" s="0">
+        <v>760.0</v>
+      </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="0">
         <v>2035</v>
       </c>
+      <c r="B27" t="n" s="0">
+        <v>745.0</v>
+      </c>
+      <c r="C27" t="n" s="0">
+        <v>783.0</v>
+      </c>
+      <c r="D27" t="n" s="0">
+        <v>781.0</v>
+      </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="0">
         <v>2036</v>
       </c>
+      <c r="B28" t="n" s="0">
+        <v>759.0</v>
+      </c>
+      <c r="C28" t="n" s="0">
+        <v>796.0</v>
+      </c>
+      <c r="D28" t="n" s="0">
+        <v>801.0</v>
+      </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="0">
         <v>2037</v>
       </c>
+      <c r="B29" t="n" s="0">
+        <v>773.0</v>
+      </c>
+      <c r="C29" t="n" s="0">
+        <v>803.0</v>
+      </c>
+      <c r="D29" t="n" s="0">
+        <v>814.0</v>
+      </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="0">
         <v>2038</v>
       </c>
+      <c r="B30" t="n" s="0">
+        <v>784.0</v>
+      </c>
+      <c r="C30" t="n" s="0">
+        <v>816.0</v>
+      </c>
+      <c r="D30" t="n" s="0">
+        <v>826.0</v>
+      </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="0">
         <v>2039</v>
       </c>
+      <c r="B31" t="n" s="0">
+        <v>803.0</v>
+      </c>
+      <c r="C31" t="n" s="0">
+        <v>820.0</v>
+      </c>
+      <c r="D31" t="n" s="0">
+        <v>834.0</v>
+      </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="0">
         <v>2040</v>
       </c>
+      <c r="B32" t="n" s="0">
+        <v>815.0</v>
+      </c>
+      <c r="C32" t="n" s="0">
+        <v>831.0</v>
+      </c>
+      <c r="D32" t="n" s="0">
+        <v>845.0</v>
+      </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="0">
         <v>2041</v>
       </c>
+      <c r="B33" t="n" s="0">
+        <v>828.0</v>
+      </c>
+      <c r="C33" t="n" s="0">
+        <v>839.0</v>
+      </c>
+      <c r="D33" t="n" s="0">
+        <v>851.0</v>
+      </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="0">
         <v>2042</v>
       </c>
+      <c r="B34" t="n" s="0">
+        <v>833.0</v>
+      </c>
+      <c r="C34" t="n" s="0">
+        <v>843.0</v>
+      </c>
+      <c r="D34" t="n" s="0">
+        <v>860.0</v>
+      </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="0">
         <v>2043</v>
       </c>
+      <c r="B35" t="n" s="0">
+        <v>842.0</v>
+      </c>
+      <c r="C35" t="n" s="0">
+        <v>852.0</v>
+      </c>
+      <c r="D35" t="n" s="0">
+        <v>863.0</v>
+      </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="0">
         <v>2044</v>
       </c>
+      <c r="B36" t="n" s="0">
+        <v>847.0</v>
+      </c>
+      <c r="C36" t="n" s="0">
+        <v>860.0</v>
+      </c>
+      <c r="D36" t="n" s="0">
+        <v>868.0</v>
+      </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="0">
         <v>2045</v>
       </c>
+      <c r="B37" t="n" s="0">
+        <v>854.0</v>
+      </c>
+      <c r="C37" t="n" s="0">
+        <v>863.0</v>
+      </c>
+      <c r="D37" t="n" s="0">
+        <v>869.0</v>
+      </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="0">
         <v>2046</v>
       </c>
+      <c r="B38" t="n" s="0">
+        <v>858.0</v>
+      </c>
+      <c r="C38" t="n" s="0">
+        <v>867.0</v>
+      </c>
+      <c r="D38" t="n" s="0">
+        <v>871.0</v>
+      </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="0">
         <v>2047</v>
       </c>
+      <c r="B39" t="n" s="0">
+        <v>864.0</v>
+      </c>
+      <c r="C39" t="n" s="0">
+        <v>870.0</v>
+      </c>
+      <c r="D39" t="n" s="0">
+        <v>873.0</v>
+      </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="0">
         <v>2048</v>
       </c>
+      <c r="B40" t="n" s="0">
+        <v>871.0</v>
+      </c>
+      <c r="C40" t="n" s="0">
+        <v>875.0</v>
+      </c>
+      <c r="D40" t="n" s="0">
+        <v>878.0</v>
+      </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="0">
         <v>2049</v>
       </c>
+      <c r="B41" t="n" s="0">
+        <v>874.0</v>
+      </c>
+      <c r="C41" t="n" s="0">
+        <v>878.0</v>
+      </c>
+      <c r="D41" t="n" s="0">
+        <v>881.0</v>
+      </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="0">
         <v>2050</v>
+      </c>
+      <c r="B42" t="n" s="0">
+        <v>875.0</v>
+      </c>
+      <c r="C42" t="n" s="0">
+        <v>882.0</v>
+      </c>
+      <c r="D42" t="n" s="0">
+        <v>883.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="n" s="0">
+        <v>878.0</v>
+      </c>
+      <c r="C43" t="n" s="0">
+        <v>885.0</v>
+      </c>
+      <c r="D43" t="n" s="0">
+        <v>890.0</v>
       </c>
     </row>
   </sheetData>
@@ -13891,10 +17024,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB22AD7-BDA6-4E47-8803-33CB0B809BBD}">
-  <dimension ref="A1:A42"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13903,210 +17036,599 @@
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
+      <c r="B1" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>33</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="0">
         <v>2010</v>
       </c>
+      <c r="B2" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="0">
         <v>2011</v>
       </c>
+      <c r="B3" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>21.0</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="0">
         <v>2012</v>
       </c>
+      <c r="B4" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>23.0</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="0">
         <v>2013</v>
       </c>
+      <c r="B5" t="n" s="0">
+        <v>43.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>43.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>43.0</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="0">
         <v>2014</v>
       </c>
+      <c r="B6" t="n" s="0">
+        <v>63.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>63.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>63.0</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="0">
         <v>2015</v>
       </c>
+      <c r="B7" t="n" s="0">
+        <v>90.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>90.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>90.0</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="0">
         <v>2016</v>
       </c>
+      <c r="B8" t="n" s="0">
+        <v>144.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>144.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>144.0</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="0">
         <v>2017</v>
       </c>
+      <c r="B9" t="n" s="0">
+        <v>215.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>215.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>215.0</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="0">
         <v>2018</v>
       </c>
+      <c r="B10" t="n" s="0">
+        <v>326.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>326.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>326.0</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="0">
         <v>2019</v>
       </c>
+      <c r="B11" t="n" s="0">
+        <v>514.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>514.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>514.0</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="0">
         <v>2020</v>
       </c>
+      <c r="B12" t="n" s="0">
+        <v>713.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>713.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>713.0</v>
+      </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="0">
         <v>2021</v>
       </c>
+      <c r="B13" t="n" s="0">
+        <v>882.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>882.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>882.0</v>
+      </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="0">
         <v>2022</v>
       </c>
+      <c r="B14" t="n" s="0">
+        <v>1005.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>1005.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>1005.0</v>
+      </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="0">
         <v>2023</v>
       </c>
+      <c r="B15" t="n" s="0">
+        <v>1182.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>1182.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>1182.0</v>
+      </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="0">
         <v>2024</v>
       </c>
+      <c r="B16" t="n" s="0">
+        <v>1327.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>1327.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>1327.0</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="0">
         <v>2025</v>
       </c>
+      <c r="B17" t="n" s="0">
+        <v>1401.0</v>
+      </c>
+      <c r="C17" t="n" s="0">
+        <v>1433.0</v>
+      </c>
+      <c r="D17" t="n" s="0">
+        <v>1442.0</v>
+      </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="0">
         <v>2026</v>
       </c>
+      <c r="B18" t="n" s="0">
+        <v>1490.0</v>
+      </c>
+      <c r="C18" t="n" s="0">
+        <v>1561.0</v>
+      </c>
+      <c r="D18" t="n" s="0">
+        <v>1598.0</v>
+      </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="0">
         <v>2027</v>
       </c>
+      <c r="B19" t="n" s="0">
+        <v>1616.0</v>
+      </c>
+      <c r="C19" t="n" s="0">
+        <v>1751.0</v>
+      </c>
+      <c r="D19" t="n" s="0">
+        <v>1827.0</v>
+      </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="0">
         <v>2028</v>
       </c>
+      <c r="B20" t="n" s="0">
+        <v>1807.0</v>
+      </c>
+      <c r="C20" t="n" s="0">
+        <v>1995.0</v>
+      </c>
+      <c r="D20" t="n" s="0">
+        <v>2112.0</v>
+      </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="0">
         <v>2029</v>
       </c>
+      <c r="B21" t="n" s="0">
+        <v>2048.0</v>
+      </c>
+      <c r="C21" t="n" s="0">
+        <v>2282.0</v>
+      </c>
+      <c r="D21" t="n" s="0">
+        <v>2454.0</v>
+      </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="0">
         <v>2030</v>
       </c>
+      <c r="B22" t="n" s="0">
+        <v>2316.0</v>
+      </c>
+      <c r="C22" t="n" s="0">
+        <v>2593.0</v>
+      </c>
+      <c r="D22" t="n" s="0">
+        <v>2797.0</v>
+      </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="0">
         <v>2031</v>
       </c>
+      <c r="B23" t="n" s="0">
+        <v>2606.0</v>
+      </c>
+      <c r="C23" t="n" s="0">
+        <v>2927.0</v>
+      </c>
+      <c r="D23" t="n" s="0">
+        <v>3158.0</v>
+      </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="0">
         <v>2032</v>
       </c>
+      <c r="B24" t="n" s="0">
+        <v>2931.0</v>
+      </c>
+      <c r="C24" t="n" s="0">
+        <v>3281.0</v>
+      </c>
+      <c r="D24" t="n" s="0">
+        <v>3547.0</v>
+      </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="0">
         <v>2033</v>
       </c>
+      <c r="B25" t="n" s="0">
+        <v>3270.0</v>
+      </c>
+      <c r="C25" t="n" s="0">
+        <v>3652.0</v>
+      </c>
+      <c r="D25" t="n" s="0">
+        <v>3943.0</v>
+      </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="0">
         <v>2034</v>
       </c>
+      <c r="B26" t="n" s="0">
+        <v>3607.0</v>
+      </c>
+      <c r="C26" t="n" s="0">
+        <v>4037.0</v>
+      </c>
+      <c r="D26" t="n" s="0">
+        <v>4352.0</v>
+      </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="0">
         <v>2035</v>
       </c>
+      <c r="B27" t="n" s="0">
+        <v>3954.0</v>
+      </c>
+      <c r="C27" t="n" s="0">
+        <v>4438.0</v>
+      </c>
+      <c r="D27" t="n" s="0">
+        <v>4785.0</v>
+      </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="0">
         <v>2036</v>
       </c>
+      <c r="B28" t="n" s="0">
+        <v>4332.0</v>
+      </c>
+      <c r="C28" t="n" s="0">
+        <v>4852.0</v>
+      </c>
+      <c r="D28" t="n" s="0">
+        <v>5218.0</v>
+      </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="0">
         <v>2037</v>
       </c>
+      <c r="B29" t="n" s="0">
+        <v>4712.0</v>
+      </c>
+      <c r="C29" t="n" s="0">
+        <v>5278.0</v>
+      </c>
+      <c r="D29" t="n" s="0">
+        <v>5670.0</v>
+      </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="0">
         <v>2038</v>
       </c>
+      <c r="B30" t="n" s="0">
+        <v>5107.0</v>
+      </c>
+      <c r="C30" t="n" s="0">
+        <v>5705.0</v>
+      </c>
+      <c r="D30" t="n" s="0">
+        <v>6116.0</v>
+      </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="0">
         <v>2039</v>
       </c>
+      <c r="B31" t="n" s="0">
+        <v>5522.0</v>
+      </c>
+      <c r="C31" t="n" s="0">
+        <v>6142.0</v>
+      </c>
+      <c r="D31" t="n" s="0">
+        <v>6580.0</v>
+      </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="0">
         <v>2040</v>
       </c>
+      <c r="B32" t="n" s="0">
+        <v>5926.0</v>
+      </c>
+      <c r="C32" t="n" s="0">
+        <v>6593.0</v>
+      </c>
+      <c r="D32" t="n" s="0">
+        <v>7040.0</v>
+      </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="0">
         <v>2041</v>
       </c>
+      <c r="B33" t="n" s="0">
+        <v>6356.0</v>
+      </c>
+      <c r="C33" t="n" s="0">
+        <v>7030.0</v>
+      </c>
+      <c r="D33" t="n" s="0">
+        <v>7512.0</v>
+      </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="0">
         <v>2042</v>
       </c>
+      <c r="B34" t="n" s="0">
+        <v>6783.0</v>
+      </c>
+      <c r="C34" t="n" s="0">
+        <v>7489.0</v>
+      </c>
+      <c r="D34" t="n" s="0">
+        <v>7997.0</v>
+      </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="0">
         <v>2043</v>
       </c>
+      <c r="B35" t="n" s="0">
+        <v>7215.0</v>
+      </c>
+      <c r="C35" t="n" s="0">
+        <v>7963.0</v>
+      </c>
+      <c r="D35" t="n" s="0">
+        <v>8494.0</v>
+      </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="0">
         <v>2044</v>
       </c>
+      <c r="B36" t="n" s="0">
+        <v>7663.0</v>
+      </c>
+      <c r="C36" t="n" s="0">
+        <v>8441.0</v>
+      </c>
+      <c r="D36" t="n" s="0">
+        <v>8995.0</v>
+      </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="0">
         <v>2045</v>
       </c>
+      <c r="B37" t="n" s="0">
+        <v>8120.0</v>
+      </c>
+      <c r="C37" t="n" s="0">
+        <v>8924.0</v>
+      </c>
+      <c r="D37" t="n" s="0">
+        <v>9498.0</v>
+      </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="0">
         <v>2046</v>
       </c>
+      <c r="B38" t="n" s="0">
+        <v>8577.0</v>
+      </c>
+      <c r="C38" t="n" s="0">
+        <v>9406.0</v>
+      </c>
+      <c r="D38" t="n" s="0">
+        <v>10006.0</v>
+      </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="0">
         <v>2047</v>
       </c>
+      <c r="B39" t="n" s="0">
+        <v>9046.0</v>
+      </c>
+      <c r="C39" t="n" s="0">
+        <v>9895.0</v>
+      </c>
+      <c r="D39" t="n" s="0">
+        <v>10518.0</v>
+      </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="0">
         <v>2048</v>
       </c>
+      <c r="B40" t="n" s="0">
+        <v>9512.0</v>
+      </c>
+      <c r="C40" t="n" s="0">
+        <v>10395.0</v>
+      </c>
+      <c r="D40" t="n" s="0">
+        <v>11022.0</v>
+      </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="0">
         <v>2049</v>
       </c>
+      <c r="B41" t="n" s="0">
+        <v>9993.0</v>
+      </c>
+      <c r="C41" t="n" s="0">
+        <v>10894.0</v>
+      </c>
+      <c r="D41" t="n" s="0">
+        <v>11529.0</v>
+      </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="0">
         <v>2050</v>
+      </c>
+      <c r="B42" t="n" s="0">
+        <v>10475.0</v>
+      </c>
+      <c r="C42" t="n" s="0">
+        <v>11404.0</v>
+      </c>
+      <c r="D42" t="n" s="0">
+        <v>12030.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="n" s="0">
+        <v>10970.0</v>
+      </c>
+      <c r="C43" t="n" s="0">
+        <v>11901.0</v>
+      </c>
+      <c r="D43" t="n" s="0">
+        <v>12511.0</v>
       </c>
     </row>
   </sheetData>
